--- a/templates/13.a-Lam BA Pembukaan 2 SAMPUL.xlsx
+++ b/templates/13.a-Lam BA Pembukaan 2 SAMPUL.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="8670" windowHeight="4020" activeTab="1"/>
@@ -335,9 +335,6 @@
     <t>LAMPIRAN BERITA ACARA PEMBUKAAN</t>
   </si>
   <si>
-    <t>PEKERJAAN ...........................</t>
-  </si>
-  <si>
     <t xml:space="preserve">PT. </t>
   </si>
   <si>
@@ -353,9 +350,6 @@
     <t xml:space="preserve"> S / TS = Sesuai / Tidak Sesuai'</t>
   </si>
   <si>
-    <t xml:space="preserve">          PANITIA PENGADAAN BARANG / JASA   ....</t>
-  </si>
-  <si>
     <t>PERSYARATAN  ADMINISTRASI (Sesuai Dengan RKS)</t>
   </si>
   <si>
@@ -368,9 +362,6 @@
     <t>A/TA = Ada/ Tidak Ada</t>
   </si>
   <si>
-    <t xml:space="preserve">      .......,  ........ .................20....</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -386,16 +377,7 @@
     <t>Dst....</t>
   </si>
   <si>
-    <t xml:space="preserve">                      Lampiran: ……………………</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanggal: …………………… </t>
-  </si>
-  <si>
     <t>LAMPIRAN BERITA ACARA PEMBUKAAN PENAWARAN (DATA ADM, TEKNIS DAN HARGA PENAWARAN)</t>
-  </si>
-  <si>
-    <t>PEKERJAAN PENGADAAN  ………………………</t>
   </si>
   <si>
     <t>PERSYARATAN KELENGKAPAN DOKUMEN</t>
@@ -575,9 +557,6 @@
     <t>S/TS</t>
   </si>
   <si>
-    <t>PANITIA PENGADAAN BARANG/JASA....</t>
-  </si>
-  <si>
     <t>M/TM = Memenuhi/Tidak memenuhi</t>
   </si>
   <si>
@@ -670,6 +649,105 @@
   <si>
     <t>.................................... Dst</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PEKERJAAN PENGADAAN  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>#namapengadaan#</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tanggal: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>#tanggal#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PEKERJAAN </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>#namapengadaan#</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">     Jakarta, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>#tgllengkap#</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PANITIA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>#namapengadaan#</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">                      Lampiran: 1 berkas</t>
+  </si>
+  <si>
+    <r>
+      <t>PANITIA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> #namapengadaan#</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -677,10 +755,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="174" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="[$Rp-421]#,##0.00;[Red][$Rp-421]#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="[$Rp-421]#,##0.00;[Red][$Rp-421]#,##0.00"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -688,6 +766,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -788,19 +867,6 @@
     <font>
       <b/>
       <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
@@ -836,6 +902,45 @@
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2055,10 +2160,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="174" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2102,10 +2207,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="174" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2123,7 +2228,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2298,199 +2403,199 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="77" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="79" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="77" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="80" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="79" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="84" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="80" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="80" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="84" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="88" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="93" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="97" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="80" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="84" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="80" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="80" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="84" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="88" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="93" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="97" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="94" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="85" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="95" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="86" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="96" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="87" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="94" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="85" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="95" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="86" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="96" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="87" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="74" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="85" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="86" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="87" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="94" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="95" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="96" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="94" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="95" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="96" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="74" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="74" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="74" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="74" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="74" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="85" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="85" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="86" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="86" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="87" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="87" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="85" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="85" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="86" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="86" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="87" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="87" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="85" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="86" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="87" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="85" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="81" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="86" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="82" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="87" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="83" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="85" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="81" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="86" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="82" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="87" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="83" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="73" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="73" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="79" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="81" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="82" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="83" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="81" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="82" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="83" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="79" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="42" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -2559,7 +2664,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3062,8 +3167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L48"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31:F32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3075,110 +3180,110 @@
   <sheetData>
     <row r="2" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="J2" s="105" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="J3" s="105" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="106"/>
     </row>
     <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="159" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="159"/>
-      <c r="C5" s="159"/>
-      <c r="D5" s="159"/>
-      <c r="E5" s="159"/>
-      <c r="F5" s="159"/>
-      <c r="G5" s="159"/>
-      <c r="H5" s="159"/>
-      <c r="I5" s="159"/>
-      <c r="J5" s="159"/>
-      <c r="K5" s="159"/>
+      <c r="A5" s="165" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="165"/>
+      <c r="C5" s="165"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="165"/>
+      <c r="F5" s="165"/>
+      <c r="G5" s="165"/>
+      <c r="H5" s="165"/>
+      <c r="I5" s="165"/>
+      <c r="J5" s="165"/>
+      <c r="K5" s="165"/>
     </row>
     <row r="6" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="160" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="160"/>
-      <c r="C6" s="160"/>
-      <c r="D6" s="160"/>
-      <c r="E6" s="160"/>
-      <c r="F6" s="160"/>
-      <c r="G6" s="160"/>
-      <c r="H6" s="160"/>
-      <c r="I6" s="160"/>
-      <c r="J6" s="160"/>
-      <c r="K6" s="160"/>
+      <c r="A6" s="166" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="166"/>
+      <c r="C6" s="166"/>
+      <c r="D6" s="166"/>
+      <c r="E6" s="166"/>
+      <c r="F6" s="166"/>
+      <c r="G6" s="166"/>
+      <c r="H6" s="166"/>
+      <c r="I6" s="166"/>
+      <c r="J6" s="166"/>
+      <c r="K6" s="166"/>
     </row>
     <row r="7" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="161" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="162"/>
-      <c r="D7" s="162"/>
-      <c r="E7" s="163"/>
-      <c r="F7" s="161" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="162"/>
-      <c r="H7" s="163"/>
-      <c r="I7" s="161" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" s="163"/>
+      <c r="B7" s="167" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="167" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="168"/>
+      <c r="H7" s="169"/>
+      <c r="I7" s="167" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="169"/>
       <c r="K7" s="108" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="L7" s="109"/>
     </row>
     <row r="8" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="110"/>
-      <c r="B8" s="164" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="165"/>
-      <c r="D8" s="165"/>
-      <c r="E8" s="166"/>
-      <c r="F8" s="167" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="168"/>
-      <c r="H8" s="169"/>
-      <c r="I8" s="167" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="169"/>
+      <c r="B8" s="159" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="160"/>
+      <c r="D8" s="160"/>
+      <c r="E8" s="161"/>
+      <c r="F8" s="162" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="163"/>
+      <c r="H8" s="164"/>
+      <c r="I8" s="162" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="164"/>
       <c r="K8" s="111"/>
       <c r="L8" s="109"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="110" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="144" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="145"/>
-      <c r="D9" s="145"/>
-      <c r="E9" s="146"/>
-      <c r="F9" s="147" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="148"/>
-      <c r="H9" s="149"/>
-      <c r="I9" s="147" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" s="149"/>
+        <v>50</v>
+      </c>
+      <c r="B9" s="135" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="136"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="138" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="139"/>
+      <c r="H9" s="140"/>
+      <c r="I9" s="138" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="140"/>
       <c r="K9" s="111"/>
       <c r="L9" s="109"/>
     </row>
@@ -3186,121 +3291,121 @@
       <c r="A10" s="112">
         <v>1</v>
       </c>
-      <c r="B10" s="144" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="145"/>
-      <c r="D10" s="145"/>
-      <c r="E10" s="146"/>
-      <c r="F10" s="147" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="148"/>
-      <c r="H10" s="149"/>
-      <c r="I10" s="147" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" s="149"/>
+      <c r="B10" s="135" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="136"/>
+      <c r="D10" s="136"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="138" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="139"/>
+      <c r="H10" s="140"/>
+      <c r="I10" s="138" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="140"/>
       <c r="K10" s="111"/>
       <c r="L10" s="109"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="112"/>
-      <c r="B11" s="150" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="151"/>
-      <c r="D11" s="151"/>
-      <c r="E11" s="152"/>
-      <c r="F11" s="147" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="148"/>
-      <c r="H11" s="149"/>
-      <c r="I11" s="147" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" s="149"/>
+      <c r="B11" s="141" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="142"/>
+      <c r="D11" s="142"/>
+      <c r="E11" s="143"/>
+      <c r="F11" s="138" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="139"/>
+      <c r="H11" s="140"/>
+      <c r="I11" s="138" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="140"/>
       <c r="K11" s="111"/>
       <c r="L11" s="109"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="112"/>
-      <c r="B12" s="150" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="151"/>
-      <c r="D12" s="151"/>
-      <c r="E12" s="152"/>
-      <c r="F12" s="147" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="148"/>
-      <c r="H12" s="149"/>
-      <c r="I12" s="147" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" s="149"/>
+      <c r="B12" s="141" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="142"/>
+      <c r="D12" s="142"/>
+      <c r="E12" s="143"/>
+      <c r="F12" s="138" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="139"/>
+      <c r="H12" s="140"/>
+      <c r="I12" s="138" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="140"/>
       <c r="K12" s="111"/>
       <c r="L12" s="109"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="112"/>
-      <c r="B13" s="150" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="151"/>
-      <c r="D13" s="151"/>
-      <c r="E13" s="152"/>
-      <c r="F13" s="147" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="148"/>
-      <c r="H13" s="149"/>
-      <c r="I13" s="147" t="s">
-        <v>41</v>
-      </c>
-      <c r="J13" s="149"/>
+      <c r="B13" s="141" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="142"/>
+      <c r="D13" s="142"/>
+      <c r="E13" s="143"/>
+      <c r="F13" s="138" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="139"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="138" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="140"/>
       <c r="K13" s="111"/>
       <c r="L13" s="109"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="112"/>
-      <c r="B14" s="150" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="151"/>
-      <c r="D14" s="151"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="147" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="148"/>
-      <c r="H14" s="149"/>
-      <c r="I14" s="147" t="s">
-        <v>41</v>
-      </c>
-      <c r="J14" s="149"/>
+      <c r="B14" s="141" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="142"/>
+      <c r="D14" s="142"/>
+      <c r="E14" s="143"/>
+      <c r="F14" s="138" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="139"/>
+      <c r="H14" s="140"/>
+      <c r="I14" s="138" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="140"/>
       <c r="K14" s="111"/>
       <c r="L14" s="109"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="112"/>
-      <c r="B15" s="150" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="151"/>
-      <c r="D15" s="151"/>
-      <c r="E15" s="152"/>
-      <c r="F15" s="147" t="s">
+      <c r="B15" s="141" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="148"/>
-      <c r="H15" s="149"/>
-      <c r="I15" s="147" t="s">
-        <v>41</v>
-      </c>
-      <c r="J15" s="149"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="138" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="139"/>
+      <c r="H15" s="140"/>
+      <c r="I15" s="138" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="140"/>
       <c r="K15" s="111"/>
       <c r="L15" s="109"/>
     </row>
@@ -3308,21 +3413,21 @@
       <c r="A16" s="112">
         <v>2</v>
       </c>
-      <c r="B16" s="144" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="145"/>
-      <c r="D16" s="145"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="147" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16" s="148"/>
-      <c r="H16" s="149"/>
-      <c r="I16" s="147" t="s">
-        <v>41</v>
-      </c>
-      <c r="J16" s="149"/>
+      <c r="B16" s="135" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="136"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="138" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="139"/>
+      <c r="H16" s="140"/>
+      <c r="I16" s="138" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="140"/>
       <c r="K16" s="111"/>
       <c r="L16" s="109"/>
     </row>
@@ -3331,18 +3436,18 @@
         <v>3</v>
       </c>
       <c r="B17" s="153" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C17" s="154"/>
       <c r="D17" s="154"/>
       <c r="E17" s="155"/>
       <c r="F17" s="156" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G17" s="157"/>
       <c r="H17" s="158"/>
       <c r="I17" s="156" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J17" s="158"/>
       <c r="K17" s="114"/>
@@ -3352,21 +3457,21 @@
       <c r="A18" s="112">
         <v>4</v>
       </c>
-      <c r="B18" s="144" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="145"/>
-      <c r="D18" s="145"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="147" t="s">
-        <v>58</v>
-      </c>
-      <c r="G18" s="148"/>
-      <c r="H18" s="149"/>
-      <c r="I18" s="147" t="s">
-        <v>41</v>
-      </c>
-      <c r="J18" s="149"/>
+      <c r="B18" s="135" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="136"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="137"/>
+      <c r="F18" s="138" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="139"/>
+      <c r="H18" s="140"/>
+      <c r="I18" s="138" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" s="140"/>
       <c r="K18" s="111"/>
       <c r="L18" s="109"/>
     </row>
@@ -3374,21 +3479,21 @@
       <c r="A19" s="112">
         <v>5</v>
       </c>
-      <c r="B19" s="144" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="145"/>
-      <c r="D19" s="145"/>
-      <c r="E19" s="146"/>
-      <c r="F19" s="147" t="s">
-        <v>58</v>
-      </c>
-      <c r="G19" s="148"/>
-      <c r="H19" s="149"/>
-      <c r="I19" s="147" t="s">
-        <v>41</v>
-      </c>
-      <c r="J19" s="149"/>
+      <c r="B19" s="135" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="136"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="138" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="139"/>
+      <c r="H19" s="140"/>
+      <c r="I19" s="138" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" s="140"/>
       <c r="K19" s="111"/>
       <c r="L19" s="109"/>
     </row>
@@ -3396,43 +3501,43 @@
       <c r="A20" s="112">
         <v>6</v>
       </c>
-      <c r="B20" s="144" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="145"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147" t="s">
-        <v>58</v>
-      </c>
-      <c r="G20" s="148"/>
-      <c r="H20" s="149"/>
-      <c r="I20" s="147" t="s">
-        <v>41</v>
-      </c>
-      <c r="J20" s="149"/>
+      <c r="B20" s="135" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="136"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="137"/>
+      <c r="F20" s="138" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="139"/>
+      <c r="H20" s="140"/>
+      <c r="I20" s="138" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="140"/>
       <c r="K20" s="111"/>
       <c r="L20" s="109"/>
     </row>
     <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="110" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="144" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="145"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="148"/>
-      <c r="H21" s="149"/>
-      <c r="I21" s="147" t="s">
-        <v>41</v>
-      </c>
-      <c r="J21" s="149"/>
+        <v>64</v>
+      </c>
+      <c r="B21" s="135" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="136"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="138" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="139"/>
+      <c r="H21" s="140"/>
+      <c r="I21" s="138" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="140"/>
       <c r="K21" s="111"/>
       <c r="L21" s="109"/>
     </row>
@@ -3440,21 +3545,21 @@
       <c r="A22" s="112">
         <v>1</v>
       </c>
-      <c r="B22" s="144" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="145"/>
-      <c r="D22" s="145"/>
-      <c r="E22" s="146"/>
-      <c r="F22" s="147" t="s">
-        <v>58</v>
-      </c>
-      <c r="G22" s="148"/>
-      <c r="H22" s="149"/>
-      <c r="I22" s="147" t="s">
-        <v>41</v>
-      </c>
-      <c r="J22" s="149"/>
+      <c r="B22" s="135" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="136"/>
+      <c r="D22" s="136"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="138" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="139"/>
+      <c r="H22" s="140"/>
+      <c r="I22" s="138" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22" s="140"/>
       <c r="K22" s="111"/>
       <c r="L22" s="109"/>
     </row>
@@ -3462,21 +3567,21 @@
       <c r="A23" s="112">
         <v>2</v>
       </c>
-      <c r="B23" s="144" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="145"/>
-      <c r="D23" s="145"/>
-      <c r="E23" s="146"/>
-      <c r="F23" s="147" t="s">
-        <v>58</v>
-      </c>
-      <c r="G23" s="148"/>
-      <c r="H23" s="149"/>
-      <c r="I23" s="147" t="s">
-        <v>41</v>
-      </c>
-      <c r="J23" s="149"/>
+      <c r="B23" s="135" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="136"/>
+      <c r="D23" s="136"/>
+      <c r="E23" s="137"/>
+      <c r="F23" s="138" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="139"/>
+      <c r="H23" s="140"/>
+      <c r="I23" s="138" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" s="140"/>
       <c r="K23" s="111"/>
       <c r="L23" s="109"/>
     </row>
@@ -3484,21 +3589,21 @@
       <c r="A24" s="112">
         <v>3</v>
       </c>
-      <c r="B24" s="144" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="145"/>
-      <c r="D24" s="145"/>
-      <c r="E24" s="146"/>
-      <c r="F24" s="147" t="s">
-        <v>58</v>
-      </c>
-      <c r="G24" s="148"/>
-      <c r="H24" s="149"/>
-      <c r="I24" s="147" t="s">
-        <v>41</v>
-      </c>
-      <c r="J24" s="149"/>
+      <c r="B24" s="135" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="136"/>
+      <c r="D24" s="136"/>
+      <c r="E24" s="137"/>
+      <c r="F24" s="138" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="139"/>
+      <c r="H24" s="140"/>
+      <c r="I24" s="138" t="s">
+        <v>38</v>
+      </c>
+      <c r="J24" s="140"/>
       <c r="K24" s="111"/>
       <c r="L24" s="109"/>
     </row>
@@ -3506,21 +3611,21 @@
       <c r="A25" s="112">
         <v>4</v>
       </c>
-      <c r="B25" s="144" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="145"/>
-      <c r="D25" s="145"/>
-      <c r="E25" s="146"/>
-      <c r="F25" s="147" t="s">
-        <v>58</v>
-      </c>
-      <c r="G25" s="148"/>
-      <c r="H25" s="149"/>
-      <c r="I25" s="147" t="s">
-        <v>41</v>
-      </c>
-      <c r="J25" s="149"/>
+      <c r="B25" s="135" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="136"/>
+      <c r="D25" s="136"/>
+      <c r="E25" s="137"/>
+      <c r="F25" s="138" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="139"/>
+      <c r="H25" s="140"/>
+      <c r="I25" s="138" t="s">
+        <v>38</v>
+      </c>
+      <c r="J25" s="140"/>
       <c r="K25" s="111"/>
       <c r="L25" s="109"/>
     </row>
@@ -3528,49 +3633,49 @@
       <c r="A26" s="112">
         <v>5</v>
       </c>
-      <c r="B26" s="144" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="145"/>
-      <c r="D26" s="145"/>
-      <c r="E26" s="146"/>
-      <c r="F26" s="147" t="s">
-        <v>58</v>
-      </c>
-      <c r="G26" s="148"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="147" t="s">
-        <v>41</v>
-      </c>
-      <c r="J26" s="149"/>
+      <c r="B26" s="135" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="136"/>
+      <c r="D26" s="136"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="138" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="139"/>
+      <c r="H26" s="140"/>
+      <c r="I26" s="138" t="s">
+        <v>38</v>
+      </c>
+      <c r="J26" s="140"/>
       <c r="K26" s="111"/>
       <c r="L26" s="109"/>
     </row>
     <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="110"/>
-      <c r="B27" s="144"/>
-      <c r="C27" s="145"/>
-      <c r="D27" s="145"/>
-      <c r="E27" s="146"/>
-      <c r="F27" s="147"/>
-      <c r="G27" s="148"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="147"/>
-      <c r="J27" s="149"/>
+      <c r="B27" s="135"/>
+      <c r="C27" s="136"/>
+      <c r="D27" s="136"/>
+      <c r="E27" s="137"/>
+      <c r="F27" s="138"/>
+      <c r="G27" s="139"/>
+      <c r="H27" s="140"/>
+      <c r="I27" s="138"/>
+      <c r="J27" s="140"/>
       <c r="K27" s="111"/>
       <c r="L27" s="109"/>
     </row>
     <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="110"/>
-      <c r="B28" s="150"/>
-      <c r="C28" s="151"/>
-      <c r="D28" s="151"/>
-      <c r="E28" s="152"/>
-      <c r="F28" s="147"/>
-      <c r="G28" s="148"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="147"/>
-      <c r="J28" s="149"/>
+      <c r="B28" s="141"/>
+      <c r="C28" s="142"/>
+      <c r="D28" s="142"/>
+      <c r="E28" s="143"/>
+      <c r="F28" s="138"/>
+      <c r="G28" s="139"/>
+      <c r="H28" s="140"/>
+      <c r="I28" s="138"/>
+      <c r="J28" s="140"/>
       <c r="K28" s="111"/>
       <c r="L28" s="109"/>
     </row>
@@ -3590,104 +3695,104 @@
     </row>
     <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="123"/>
-      <c r="B30" s="134" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="135"/>
-      <c r="D30" s="135"/>
-      <c r="E30" s="136"/>
-      <c r="F30" s="137" t="s">
-        <v>78</v>
-      </c>
-      <c r="G30" s="138"/>
-      <c r="H30" s="139"/>
-      <c r="I30" s="137" t="s">
-        <v>44</v>
-      </c>
-      <c r="J30" s="139"/>
+      <c r="B30" s="144" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="145"/>
+      <c r="D30" s="145"/>
+      <c r="E30" s="146"/>
+      <c r="F30" s="147" t="s">
+        <v>72</v>
+      </c>
+      <c r="G30" s="148"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="147" t="s">
+        <v>41</v>
+      </c>
+      <c r="J30" s="149"/>
       <c r="K30" s="124"/>
       <c r="L30" s="109"/>
     </row>
     <row r="31" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="140" t="s">
-        <v>77</v>
-      </c>
-      <c r="B31" s="140"/>
-      <c r="D31" s="141"/>
-      <c r="E31" s="142"/>
-      <c r="F31" s="142"/>
-      <c r="G31" s="143" t="s">
-        <v>79</v>
-      </c>
-      <c r="H31" s="143"/>
-      <c r="I31" s="143"/>
-      <c r="J31" s="143"/>
-      <c r="K31" s="143"/>
-      <c r="L31" s="143"/>
+      <c r="A31" s="150" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="150"/>
+      <c r="D31" s="151"/>
+      <c r="E31" s="152"/>
+      <c r="F31" s="152"/>
+      <c r="G31" s="134" t="s">
+        <v>90</v>
+      </c>
+      <c r="H31" s="134"/>
+      <c r="I31" s="134"/>
+      <c r="J31" s="134"/>
+      <c r="K31" s="134"/>
+      <c r="L31" s="134"/>
     </row>
     <row r="32" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="131" t="s">
-        <v>80</v>
-      </c>
-      <c r="B32" s="131"/>
-      <c r="D32" s="130"/>
-      <c r="E32" s="143"/>
-      <c r="F32" s="143"/>
-      <c r="G32" s="143" t="s">
-        <v>81</v>
-      </c>
-      <c r="H32" s="143"/>
-      <c r="I32" s="143"/>
-      <c r="J32" s="143"/>
-      <c r="K32" s="143"/>
-      <c r="L32" s="143"/>
+      <c r="A32" s="130" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="130"/>
+      <c r="D32" s="129"/>
+      <c r="E32" s="134"/>
+      <c r="F32" s="134"/>
+      <c r="G32" s="134" t="s">
+        <v>74</v>
+      </c>
+      <c r="H32" s="134"/>
+      <c r="I32" s="134"/>
+      <c r="J32" s="134"/>
+      <c r="K32" s="134"/>
+      <c r="L32" s="134"/>
     </row>
     <row r="33" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="131" t="s">
-        <v>82</v>
-      </c>
-      <c r="B33" s="131"/>
+      <c r="A33" s="130" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="130"/>
       <c r="D33" s="126"/>
       <c r="F33" s="126"/>
       <c r="G33" s="126"/>
       <c r="H33" s="126" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I33" s="126"/>
-      <c r="J33" s="129" t="s">
-        <v>84</v>
-      </c>
-      <c r="K33" s="129"/>
-      <c r="L33" s="129"/>
+      <c r="J33" s="131" t="s">
+        <v>77</v>
+      </c>
+      <c r="K33" s="131"/>
+      <c r="L33" s="131"/>
     </row>
     <row r="34" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="131" t="s">
-        <v>85</v>
-      </c>
-      <c r="B34" s="131"/>
+      <c r="A34" s="130" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="130"/>
       <c r="D34" s="126"/>
       <c r="F34" s="126"/>
       <c r="G34" s="126"/>
       <c r="H34" s="126"/>
       <c r="I34" s="126"/>
-      <c r="J34" s="129"/>
-      <c r="K34" s="129"/>
-      <c r="L34" s="129"/>
+      <c r="J34" s="131"/>
+      <c r="K34" s="131"/>
+      <c r="L34" s="131"/>
     </row>
     <row r="35" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="132"/>
       <c r="B35" s="132"/>
       <c r="D35" s="133" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E35" s="133"/>
       <c r="F35" s="126"/>
       <c r="G35" s="126"/>
       <c r="H35" s="126"/>
       <c r="I35" s="126"/>
-      <c r="J35" s="129"/>
-      <c r="K35" s="129"/>
-      <c r="L35" s="129"/>
+      <c r="J35" s="131"/>
+      <c r="K35" s="131"/>
+      <c r="L35" s="131"/>
     </row>
     <row r="36" spans="1:12" ht="13.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="132"/>
@@ -3697,9 +3802,9 @@
       <c r="G36" s="126"/>
       <c r="H36" s="126"/>
       <c r="I36" s="126"/>
-      <c r="J36" s="129"/>
-      <c r="K36" s="129"/>
-      <c r="L36" s="129"/>
+      <c r="J36" s="131"/>
+      <c r="K36" s="131"/>
+      <c r="L36" s="131"/>
     </row>
     <row r="37" spans="1:12" ht="13.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="132"/>
@@ -3709,9 +3814,9 @@
       <c r="G37" s="126"/>
       <c r="H37" s="126"/>
       <c r="I37" s="126"/>
-      <c r="J37" s="129"/>
-      <c r="K37" s="129"/>
-      <c r="L37" s="129"/>
+      <c r="J37" s="131"/>
+      <c r="K37" s="131"/>
+      <c r="L37" s="131"/>
     </row>
     <row r="38" spans="1:12" ht="13.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="132"/>
@@ -3721,26 +3826,26 @@
       <c r="G38" s="126"/>
       <c r="H38" s="126"/>
       <c r="I38" s="126"/>
-      <c r="J38" s="129"/>
-      <c r="K38" s="129"/>
-      <c r="L38" s="129"/>
+      <c r="J38" s="131"/>
+      <c r="K38" s="131"/>
+      <c r="L38" s="131"/>
     </row>
     <row r="39" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="128"/>
       <c r="D39" s="125" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F39" s="126"/>
       <c r="G39" s="126"/>
       <c r="H39" s="126" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="I39" s="127"/>
-      <c r="J39" s="129" t="s">
-        <v>84</v>
-      </c>
-      <c r="K39" s="129"/>
-      <c r="L39" s="129"/>
+      <c r="J39" s="131" t="s">
+        <v>77</v>
+      </c>
+      <c r="K39" s="131"/>
+      <c r="L39" s="131"/>
     </row>
     <row r="40" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="128"/>
@@ -3751,14 +3856,14 @@
       <c r="F40" s="126"/>
       <c r="G40" s="126"/>
       <c r="H40" s="126" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="I40" s="127"/>
-      <c r="J40" s="129" t="s">
-        <v>90</v>
-      </c>
-      <c r="K40" s="129"/>
-      <c r="L40" s="129"/>
+      <c r="J40" s="131" t="s">
+        <v>83</v>
+      </c>
+      <c r="K40" s="131"/>
+      <c r="L40" s="131"/>
     </row>
     <row r="41" spans="1:12" ht="13.5" x14ac:dyDescent="0.2">
       <c r="D41" s="125"/>
@@ -3767,10 +3872,10 @@
       <c r="D42" s="128"/>
     </row>
     <row r="43" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D43" s="130" t="s">
-        <v>91</v>
-      </c>
-      <c r="E43" s="130"/>
+      <c r="D43" s="129" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" s="129"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C44" s="104">
@@ -3778,10 +3883,10 @@
       </c>
     </row>
     <row r="47" spans="1:12" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="D47" s="130" t="s">
-        <v>92</v>
-      </c>
-      <c r="E47" s="130"/>
+      <c r="D47" s="129" t="s">
+        <v>85</v>
+      </c>
+      <c r="E47" s="129"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="128"/>
@@ -3857,8 +3962,6 @@
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="F28:H28"/>
     <mergeCell ref="I28:J28"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="F30:H30"/>
     <mergeCell ref="I30:J30"/>
@@ -3877,6 +3980,8 @@
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3887,8 +3992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D45" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3930,7 +4035,7 @@
     </row>
     <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="171" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="B3" s="171"/>
       <c r="C3" s="171"/>
@@ -3986,16 +4091,16 @@
       <c r="B7" s="38"/>
       <c r="C7" s="178"/>
       <c r="D7" s="84" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="85" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="85" t="s">
         <v>27</v>
       </c>
       <c r="G7" s="85" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7" s="85"/>
       <c r="I7" s="86"/>
@@ -4033,7 +4138,7 @@
       </c>
       <c r="B9" s="54"/>
       <c r="C9" s="63" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D9" s="32"/>
       <c r="E9" s="33"/>
@@ -4063,7 +4168,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>2</v>
@@ -4099,7 +4204,7 @@
       <c r="C13" s="187"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
@@ -4231,7 +4336,7 @@
         <v>10</v>
       </c>
       <c r="B22" s="59" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C22" s="51"/>
       <c r="D22" s="13"/>
@@ -4374,17 +4479,17 @@
       <c r="A32" s="22"/>
       <c r="B32" s="98"/>
       <c r="C32" s="83" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D32" s="99"/>
       <c r="E32" s="99" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F32" s="99" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G32" s="99" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H32" s="99"/>
       <c r="I32" s="100"/>
@@ -4412,7 +4517,7 @@
       </c>
       <c r="B34" s="47"/>
       <c r="C34" s="62" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D34" s="43"/>
       <c r="E34" s="43"/>
@@ -4446,7 +4551,7 @@
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
@@ -4493,7 +4598,7 @@
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
@@ -4551,7 +4656,7 @@
       </c>
       <c r="B43" s="46"/>
       <c r="C43" s="16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
@@ -4605,14 +4710,14 @@
       <c r="A47" s="68"/>
       <c r="B47" s="69"/>
       <c r="C47" s="83" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D47" s="71"/>
       <c r="E47" s="71" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F47" s="71" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G47" s="71"/>
       <c r="H47" s="71"/>
@@ -4633,7 +4738,7 @@
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D49" s="89"/>
       <c r="E49" s="15"/>
@@ -4646,7 +4751,7 @@
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="193" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D50" s="194"/>
       <c r="E50" s="15"/>
@@ -4659,7 +4764,7 @@
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="193" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D51" s="194"/>
       <c r="E51" s="15"/>
@@ -4672,7 +4777,7 @@
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="90" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D52" s="91"/>
       <c r="E52" s="15"/>
@@ -4720,7 +4825,7 @@
       <c r="C56" s="87"/>
       <c r="D56" s="15"/>
       <c r="E56" s="191" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="F56" s="191"/>
       <c r="G56" s="191"/>
@@ -4744,7 +4849,7 @@
       <c r="C58" s="9"/>
       <c r="D58" s="6"/>
       <c r="E58" s="192" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="F58" s="192"/>
       <c r="G58" s="192"/>

--- a/templates/13.a-Lam BA Pembukaan 2 SAMPUL.xlsx
+++ b/templates/13.a-Lam BA Pembukaan 2 SAMPUL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="8670" windowHeight="4020" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="8670" windowHeight="4020"/>
   </bookViews>
   <sheets>
     <sheet name="Lam Buka 1 Sampul (1)" sheetId="3" r:id="rId1"/>
@@ -942,12 +942,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="98">
@@ -2149,7 +2155,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="195">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2210,13 +2216,9 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2319,9 +2321,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2469,134 +2468,173 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="73" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="79" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="81" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="82" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="83" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="81" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="82" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="83" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="85" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="86" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="87" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="85" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="86" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="87" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="85" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="86" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="87" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="85" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="86" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="87" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="85" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="86" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="87" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="94" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="95" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="96" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="94" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="95" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="96" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="74" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="74" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="74" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="85" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="86" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="87" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="85" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="86" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="87" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="85" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="86" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="87" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="94" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="95" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="96" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="94" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="95" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="96" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="74" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="74" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="74" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="85" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="86" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="87" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="85" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="86" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="87" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="81" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="82" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="83" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="81" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="82" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="83" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="73" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="79" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="42" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2625,53 +2663,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3167,791 +3182,746 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33:L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="104"/>
-    <col min="3" max="3" width="12.7109375" style="104" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="104"/>
+    <col min="1" max="2" width="9.140625" style="101"/>
+    <col min="3" max="3" width="12.7109375" style="101" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="101"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="J2" s="105" t="s">
+      <c r="J2" s="102" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="J3" s="105" t="s">
+      <c r="J3" s="102" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="106"/>
+      <c r="A4" s="103"/>
     </row>
     <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="165" t="s">
+      <c r="A5" s="125" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="165"/>
-      <c r="C5" s="165"/>
-      <c r="D5" s="165"/>
-      <c r="E5" s="165"/>
-      <c r="F5" s="165"/>
-      <c r="G5" s="165"/>
-      <c r="H5" s="165"/>
-      <c r="I5" s="165"/>
-      <c r="J5" s="165"/>
-      <c r="K5" s="165"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="125"/>
+      <c r="K5" s="125"/>
     </row>
     <row r="6" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="166" t="s">
+      <c r="A6" s="126" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="166"/>
-      <c r="C6" s="166"/>
-      <c r="D6" s="166"/>
-      <c r="E6" s="166"/>
-      <c r="F6" s="166"/>
-      <c r="G6" s="166"/>
-      <c r="H6" s="166"/>
-      <c r="I6" s="166"/>
-      <c r="J6" s="166"/>
-      <c r="K6" s="166"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
     </row>
     <row r="7" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="107" t="s">
+      <c r="A7" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="167" t="s">
+      <c r="B7" s="127" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="168"/>
-      <c r="D7" s="168"/>
-      <c r="E7" s="169"/>
-      <c r="F7" s="167" t="s">
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="127" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="168"/>
-      <c r="H7" s="169"/>
-      <c r="I7" s="167" t="s">
+      <c r="G7" s="128"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="J7" s="169"/>
-      <c r="K7" s="108" t="s">
+      <c r="J7" s="129"/>
+      <c r="K7" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="L7" s="109"/>
+      <c r="L7" s="106"/>
     </row>
     <row r="8" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="110"/>
-      <c r="B8" s="159" t="s">
+      <c r="A8" s="107"/>
+      <c r="B8" s="130" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="160"/>
-      <c r="D8" s="160"/>
-      <c r="E8" s="161"/>
-      <c r="F8" s="162" t="s">
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="133" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="163"/>
-      <c r="H8" s="164"/>
-      <c r="I8" s="162" t="s">
+      <c r="G8" s="134"/>
+      <c r="H8" s="135"/>
+      <c r="I8" s="133" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="164"/>
-      <c r="K8" s="111"/>
-      <c r="L8" s="109"/>
+      <c r="J8" s="135"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="106"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="107" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="135" t="s">
+      <c r="B9" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="136"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="138" t="s">
+      <c r="C9" s="137"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="139"/>
-      <c r="H9" s="140"/>
-      <c r="I9" s="138" t="s">
+      <c r="G9" s="140"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="140"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="109"/>
+      <c r="J9" s="141"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="106"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="112">
+      <c r="A10" s="109">
         <v>1</v>
       </c>
-      <c r="B10" s="135" t="s">
+      <c r="B10" s="136" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="136"/>
-      <c r="D10" s="136"/>
-      <c r="E10" s="137"/>
-      <c r="F10" s="138" t="s">
+      <c r="C10" s="137"/>
+      <c r="D10" s="137"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="139"/>
-      <c r="H10" s="140"/>
-      <c r="I10" s="138" t="s">
+      <c r="G10" s="140"/>
+      <c r="H10" s="141"/>
+      <c r="I10" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="140"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="109"/>
+      <c r="J10" s="141"/>
+      <c r="K10" s="108"/>
+      <c r="L10" s="106"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="112"/>
-      <c r="B11" s="141" t="s">
+      <c r="A11" s="109"/>
+      <c r="B11" s="142" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="142"/>
-      <c r="D11" s="142"/>
-      <c r="E11" s="143"/>
-      <c r="F11" s="138" t="s">
+      <c r="C11" s="143"/>
+      <c r="D11" s="143"/>
+      <c r="E11" s="144"/>
+      <c r="F11" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="139"/>
-      <c r="H11" s="140"/>
-      <c r="I11" s="138" t="s">
+      <c r="G11" s="140"/>
+      <c r="H11" s="141"/>
+      <c r="I11" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="140"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="109"/>
+      <c r="J11" s="141"/>
+      <c r="K11" s="108"/>
+      <c r="L11" s="106"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="112"/>
-      <c r="B12" s="141" t="s">
+      <c r="A12" s="109"/>
+      <c r="B12" s="142" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="142"/>
-      <c r="D12" s="142"/>
-      <c r="E12" s="143"/>
-      <c r="F12" s="138" t="s">
+      <c r="C12" s="143"/>
+      <c r="D12" s="143"/>
+      <c r="E12" s="144"/>
+      <c r="F12" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="G12" s="139"/>
-      <c r="H12" s="140"/>
-      <c r="I12" s="138" t="s">
+      <c r="G12" s="140"/>
+      <c r="H12" s="141"/>
+      <c r="I12" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="140"/>
-      <c r="K12" s="111"/>
-      <c r="L12" s="109"/>
+      <c r="J12" s="141"/>
+      <c r="K12" s="108"/>
+      <c r="L12" s="106"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="112"/>
-      <c r="B13" s="141" t="s">
+      <c r="A13" s="109"/>
+      <c r="B13" s="142" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="142"/>
-      <c r="D13" s="142"/>
-      <c r="E13" s="143"/>
-      <c r="F13" s="138" t="s">
+      <c r="C13" s="143"/>
+      <c r="D13" s="143"/>
+      <c r="E13" s="144"/>
+      <c r="F13" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="139"/>
-      <c r="H13" s="140"/>
-      <c r="I13" s="138" t="s">
+      <c r="G13" s="140"/>
+      <c r="H13" s="141"/>
+      <c r="I13" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="140"/>
-      <c r="K13" s="111"/>
-      <c r="L13" s="109"/>
+      <c r="J13" s="141"/>
+      <c r="K13" s="108"/>
+      <c r="L13" s="106"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="112"/>
-      <c r="B14" s="141" t="s">
+      <c r="A14" s="109"/>
+      <c r="B14" s="142" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="142"/>
-      <c r="D14" s="142"/>
-      <c r="E14" s="143"/>
-      <c r="F14" s="138" t="s">
+      <c r="C14" s="143"/>
+      <c r="D14" s="143"/>
+      <c r="E14" s="144"/>
+      <c r="F14" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="139"/>
-      <c r="H14" s="140"/>
-      <c r="I14" s="138" t="s">
+      <c r="G14" s="140"/>
+      <c r="H14" s="141"/>
+      <c r="I14" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="J14" s="140"/>
-      <c r="K14" s="111"/>
-      <c r="L14" s="109"/>
+      <c r="J14" s="141"/>
+      <c r="K14" s="108"/>
+      <c r="L14" s="106"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="112"/>
-      <c r="B15" s="141" t="s">
+      <c r="A15" s="109"/>
+      <c r="B15" s="142" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="142"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="138" t="s">
+      <c r="C15" s="143"/>
+      <c r="D15" s="143"/>
+      <c r="E15" s="144"/>
+      <c r="F15" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="139"/>
-      <c r="H15" s="140"/>
-      <c r="I15" s="138" t="s">
+      <c r="G15" s="140"/>
+      <c r="H15" s="141"/>
+      <c r="I15" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="J15" s="140"/>
-      <c r="K15" s="111"/>
-      <c r="L15" s="109"/>
+      <c r="J15" s="141"/>
+      <c r="K15" s="108"/>
+      <c r="L15" s="106"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="112">
-        <v>2</v>
-      </c>
-      <c r="B16" s="135" t="s">
+      <c r="A16" s="109">
+        <v>2</v>
+      </c>
+      <c r="B16" s="136" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="136"/>
-      <c r="D16" s="136"/>
-      <c r="E16" s="137"/>
-      <c r="F16" s="138" t="s">
+      <c r="C16" s="137"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="139"/>
-      <c r="H16" s="140"/>
-      <c r="I16" s="138" t="s">
+      <c r="G16" s="140"/>
+      <c r="H16" s="141"/>
+      <c r="I16" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="J16" s="140"/>
-      <c r="K16" s="111"/>
-      <c r="L16" s="109"/>
+      <c r="J16" s="141"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="106"/>
     </row>
     <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="113">
+      <c r="A17" s="110">
         <v>3</v>
       </c>
-      <c r="B17" s="153" t="s">
+      <c r="B17" s="145" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="154"/>
-      <c r="D17" s="154"/>
-      <c r="E17" s="155"/>
-      <c r="F17" s="156" t="s">
+      <c r="C17" s="146"/>
+      <c r="D17" s="146"/>
+      <c r="E17" s="147"/>
+      <c r="F17" s="148" t="s">
         <v>52</v>
       </c>
-      <c r="G17" s="157"/>
-      <c r="H17" s="158"/>
-      <c r="I17" s="156" t="s">
+      <c r="G17" s="149"/>
+      <c r="H17" s="150"/>
+      <c r="I17" s="148" t="s">
         <v>38</v>
       </c>
-      <c r="J17" s="158"/>
-      <c r="K17" s="114"/>
-      <c r="L17" s="109"/>
+      <c r="J17" s="150"/>
+      <c r="K17" s="111"/>
+      <c r="L17" s="106"/>
     </row>
     <row r="18" spans="1:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="112">
+      <c r="A18" s="109">
         <v>4</v>
       </c>
-      <c r="B18" s="135" t="s">
+      <c r="B18" s="136" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="136"/>
-      <c r="D18" s="136"/>
-      <c r="E18" s="137"/>
-      <c r="F18" s="138" t="s">
+      <c r="C18" s="137"/>
+      <c r="D18" s="137"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="139"/>
-      <c r="H18" s="140"/>
-      <c r="I18" s="138" t="s">
+      <c r="G18" s="140"/>
+      <c r="H18" s="141"/>
+      <c r="I18" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="J18" s="140"/>
-      <c r="K18" s="111"/>
-      <c r="L18" s="109"/>
+      <c r="J18" s="141"/>
+      <c r="K18" s="108"/>
+      <c r="L18" s="106"/>
     </row>
     <row r="19" spans="1:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="112">
+      <c r="A19" s="109">
         <v>5</v>
       </c>
-      <c r="B19" s="135" t="s">
+      <c r="B19" s="136" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="136"/>
-      <c r="D19" s="136"/>
-      <c r="E19" s="137"/>
-      <c r="F19" s="138" t="s">
+      <c r="C19" s="137"/>
+      <c r="D19" s="137"/>
+      <c r="E19" s="138"/>
+      <c r="F19" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="139"/>
-      <c r="H19" s="140"/>
-      <c r="I19" s="138" t="s">
+      <c r="G19" s="140"/>
+      <c r="H19" s="141"/>
+      <c r="I19" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="J19" s="140"/>
-      <c r="K19" s="111"/>
-      <c r="L19" s="109"/>
+      <c r="J19" s="141"/>
+      <c r="K19" s="108"/>
+      <c r="L19" s="106"/>
     </row>
     <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="112">
+      <c r="A20" s="109">
         <v>6</v>
       </c>
-      <c r="B20" s="135" t="s">
+      <c r="B20" s="136" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="136"/>
-      <c r="D20" s="136"/>
-      <c r="E20" s="137"/>
-      <c r="F20" s="138" t="s">
+      <c r="C20" s="137"/>
+      <c r="D20" s="137"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="139"/>
-      <c r="H20" s="140"/>
-      <c r="I20" s="138" t="s">
+      <c r="G20" s="140"/>
+      <c r="H20" s="141"/>
+      <c r="I20" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="J20" s="140"/>
-      <c r="K20" s="111"/>
-      <c r="L20" s="109"/>
+      <c r="J20" s="141"/>
+      <c r="K20" s="108"/>
+      <c r="L20" s="106"/>
     </row>
     <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="110" t="s">
+      <c r="A21" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="135" t="s">
+      <c r="B21" s="136" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="136"/>
-      <c r="D21" s="136"/>
-      <c r="E21" s="137"/>
-      <c r="F21" s="138" t="s">
+      <c r="C21" s="137"/>
+      <c r="D21" s="137"/>
+      <c r="E21" s="138"/>
+      <c r="F21" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="G21" s="139"/>
-      <c r="H21" s="140"/>
-      <c r="I21" s="138" t="s">
+      <c r="G21" s="140"/>
+      <c r="H21" s="141"/>
+      <c r="I21" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="J21" s="140"/>
-      <c r="K21" s="111"/>
-      <c r="L21" s="109"/>
+      <c r="J21" s="141"/>
+      <c r="K21" s="108"/>
+      <c r="L21" s="106"/>
     </row>
     <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="112">
+      <c r="A22" s="109">
         <v>1</v>
       </c>
-      <c r="B22" s="135" t="s">
+      <c r="B22" s="136" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="136"/>
-      <c r="D22" s="136"/>
-      <c r="E22" s="137"/>
-      <c r="F22" s="138" t="s">
+      <c r="C22" s="137"/>
+      <c r="D22" s="137"/>
+      <c r="E22" s="138"/>
+      <c r="F22" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="139"/>
-      <c r="H22" s="140"/>
-      <c r="I22" s="138" t="s">
+      <c r="G22" s="140"/>
+      <c r="H22" s="141"/>
+      <c r="I22" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="J22" s="140"/>
-      <c r="K22" s="111"/>
-      <c r="L22" s="109"/>
+      <c r="J22" s="141"/>
+      <c r="K22" s="108"/>
+      <c r="L22" s="106"/>
     </row>
     <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="112">
-        <v>2</v>
-      </c>
-      <c r="B23" s="135" t="s">
+      <c r="A23" s="109">
+        <v>2</v>
+      </c>
+      <c r="B23" s="136" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="136"/>
-      <c r="D23" s="136"/>
-      <c r="E23" s="137"/>
-      <c r="F23" s="138" t="s">
+      <c r="C23" s="137"/>
+      <c r="D23" s="137"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="G23" s="139"/>
-      <c r="H23" s="140"/>
-      <c r="I23" s="138" t="s">
+      <c r="G23" s="140"/>
+      <c r="H23" s="141"/>
+      <c r="I23" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="J23" s="140"/>
-      <c r="K23" s="111"/>
-      <c r="L23" s="109"/>
+      <c r="J23" s="141"/>
+      <c r="K23" s="108"/>
+      <c r="L23" s="106"/>
     </row>
     <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="112">
+      <c r="A24" s="109">
         <v>3</v>
       </c>
-      <c r="B24" s="135" t="s">
+      <c r="B24" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="136"/>
-      <c r="D24" s="136"/>
-      <c r="E24" s="137"/>
-      <c r="F24" s="138" t="s">
+      <c r="C24" s="137"/>
+      <c r="D24" s="137"/>
+      <c r="E24" s="138"/>
+      <c r="F24" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="G24" s="139"/>
-      <c r="H24" s="140"/>
-      <c r="I24" s="138" t="s">
+      <c r="G24" s="140"/>
+      <c r="H24" s="141"/>
+      <c r="I24" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="J24" s="140"/>
-      <c r="K24" s="111"/>
-      <c r="L24" s="109"/>
+      <c r="J24" s="141"/>
+      <c r="K24" s="108"/>
+      <c r="L24" s="106"/>
     </row>
     <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="112">
+      <c r="A25" s="109">
         <v>4</v>
       </c>
-      <c r="B25" s="135" t="s">
+      <c r="B25" s="136" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="136"/>
-      <c r="D25" s="136"/>
-      <c r="E25" s="137"/>
-      <c r="F25" s="138" t="s">
+      <c r="C25" s="137"/>
+      <c r="D25" s="137"/>
+      <c r="E25" s="138"/>
+      <c r="F25" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="G25" s="139"/>
-      <c r="H25" s="140"/>
-      <c r="I25" s="138" t="s">
+      <c r="G25" s="140"/>
+      <c r="H25" s="141"/>
+      <c r="I25" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="J25" s="140"/>
-      <c r="K25" s="111"/>
-      <c r="L25" s="109"/>
+      <c r="J25" s="141"/>
+      <c r="K25" s="108"/>
+      <c r="L25" s="106"/>
     </row>
     <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="112">
+      <c r="A26" s="109">
         <v>5</v>
       </c>
-      <c r="B26" s="135" t="s">
+      <c r="B26" s="136" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="136"/>
-      <c r="D26" s="136"/>
-      <c r="E26" s="137"/>
-      <c r="F26" s="138" t="s">
+      <c r="C26" s="137"/>
+      <c r="D26" s="137"/>
+      <c r="E26" s="138"/>
+      <c r="F26" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="G26" s="139"/>
-      <c r="H26" s="140"/>
-      <c r="I26" s="138" t="s">
+      <c r="G26" s="140"/>
+      <c r="H26" s="141"/>
+      <c r="I26" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="J26" s="140"/>
-      <c r="K26" s="111"/>
-      <c r="L26" s="109"/>
+      <c r="J26" s="141"/>
+      <c r="K26" s="108"/>
+      <c r="L26" s="106"/>
     </row>
     <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="110"/>
-      <c r="B27" s="135"/>
-      <c r="C27" s="136"/>
-      <c r="D27" s="136"/>
-      <c r="E27" s="137"/>
-      <c r="F27" s="138"/>
-      <c r="G27" s="139"/>
-      <c r="H27" s="140"/>
-      <c r="I27" s="138"/>
-      <c r="J27" s="140"/>
-      <c r="K27" s="111"/>
-      <c r="L27" s="109"/>
+      <c r="A27" s="107"/>
+      <c r="B27" s="136"/>
+      <c r="C27" s="137"/>
+      <c r="D27" s="137"/>
+      <c r="E27" s="138"/>
+      <c r="F27" s="139"/>
+      <c r="G27" s="140"/>
+      <c r="H27" s="141"/>
+      <c r="I27" s="139"/>
+      <c r="J27" s="141"/>
+      <c r="K27" s="108"/>
+      <c r="L27" s="106"/>
     </row>
     <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="110"/>
-      <c r="B28" s="141"/>
-      <c r="C28" s="142"/>
-      <c r="D28" s="142"/>
-      <c r="E28" s="143"/>
-      <c r="F28" s="138"/>
-      <c r="G28" s="139"/>
-      <c r="H28" s="140"/>
-      <c r="I28" s="138"/>
-      <c r="J28" s="140"/>
-      <c r="K28" s="111"/>
-      <c r="L28" s="109"/>
+      <c r="A28" s="107"/>
+      <c r="B28" s="142"/>
+      <c r="C28" s="143"/>
+      <c r="D28" s="143"/>
+      <c r="E28" s="144"/>
+      <c r="F28" s="139"/>
+      <c r="G28" s="140"/>
+      <c r="H28" s="141"/>
+      <c r="I28" s="139"/>
+      <c r="J28" s="141"/>
+      <c r="K28" s="108"/>
+      <c r="L28" s="106"/>
     </row>
     <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="115"/>
-      <c r="B29" s="116"/>
-      <c r="C29" s="117"/>
-      <c r="D29" s="117"/>
-      <c r="E29" s="118"/>
-      <c r="F29" s="119"/>
-      <c r="G29" s="120"/>
-      <c r="H29" s="121"/>
-      <c r="I29" s="119"/>
-      <c r="J29" s="121"/>
-      <c r="K29" s="122"/>
-      <c r="L29" s="109"/>
+      <c r="A29" s="112"/>
+      <c r="B29" s="113"/>
+      <c r="C29" s="114"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="115"/>
+      <c r="F29" s="116"/>
+      <c r="G29" s="117"/>
+      <c r="H29" s="118"/>
+      <c r="I29" s="116"/>
+      <c r="J29" s="118"/>
+      <c r="K29" s="119"/>
+      <c r="L29" s="106"/>
     </row>
     <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="123"/>
-      <c r="B30" s="144" t="s">
+      <c r="A30" s="120"/>
+      <c r="B30" s="152" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="145"/>
-      <c r="D30" s="145"/>
-      <c r="E30" s="146"/>
-      <c r="F30" s="147" t="s">
+      <c r="C30" s="153"/>
+      <c r="D30" s="153"/>
+      <c r="E30" s="154"/>
+      <c r="F30" s="155" t="s">
         <v>72</v>
       </c>
-      <c r="G30" s="148"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="147" t="s">
+      <c r="G30" s="156"/>
+      <c r="H30" s="157"/>
+      <c r="I30" s="155" t="s">
         <v>41</v>
       </c>
-      <c r="J30" s="149"/>
-      <c r="K30" s="124"/>
-      <c r="L30" s="109"/>
+      <c r="J30" s="157"/>
+      <c r="K30" s="121"/>
+      <c r="L30" s="106"/>
     </row>
     <row r="31" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="150" t="s">
+      <c r="A31" s="158" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="150"/>
-      <c r="D31" s="151"/>
-      <c r="E31" s="152"/>
-      <c r="F31" s="152"/>
-      <c r="G31" s="134" t="s">
+      <c r="B31" s="158"/>
+      <c r="D31" s="159"/>
+      <c r="E31" s="161"/>
+      <c r="F31" s="161"/>
+      <c r="G31" s="151" t="s">
         <v>90</v>
       </c>
-      <c r="H31" s="134"/>
-      <c r="I31" s="134"/>
-      <c r="J31" s="134"/>
-      <c r="K31" s="134"/>
-      <c r="L31" s="134"/>
+      <c r="H31" s="151"/>
+      <c r="I31" s="151"/>
+      <c r="J31" s="151"/>
+      <c r="K31" s="151"/>
+      <c r="L31" s="151"/>
     </row>
     <row r="32" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="130" t="s">
+      <c r="A32" s="162" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="130"/>
-      <c r="D32" s="129"/>
-      <c r="E32" s="134"/>
-      <c r="F32" s="134"/>
-      <c r="G32" s="134" t="s">
+      <c r="B32" s="162"/>
+      <c r="D32" s="160"/>
+      <c r="E32" s="151"/>
+      <c r="F32" s="151"/>
+      <c r="G32" s="151" t="s">
         <v>74</v>
       </c>
-      <c r="H32" s="134"/>
-      <c r="I32" s="134"/>
-      <c r="J32" s="134"/>
-      <c r="K32" s="134"/>
-      <c r="L32" s="134"/>
+      <c r="H32" s="151"/>
+      <c r="I32" s="151"/>
+      <c r="J32" s="151"/>
+      <c r="K32" s="151"/>
+      <c r="L32" s="151"/>
     </row>
     <row r="33" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="130" t="s">
+      <c r="A33" s="162" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="130"/>
-      <c r="D33" s="126"/>
-      <c r="F33" s="126"/>
-      <c r="G33" s="126"/>
-      <c r="H33" s="126" t="s">
+      <c r="B33" s="162"/>
+      <c r="D33" s="123"/>
+      <c r="F33" s="123"/>
+      <c r="G33" s="123"/>
+      <c r="H33" s="197" t="s">
         <v>76</v>
       </c>
-      <c r="I33" s="126"/>
-      <c r="J33" s="131" t="s">
+      <c r="I33" s="197"/>
+      <c r="J33" s="198" t="s">
         <v>77</v>
       </c>
-      <c r="K33" s="131"/>
-      <c r="L33" s="131"/>
+      <c r="K33" s="198"/>
+      <c r="L33" s="198"/>
     </row>
     <row r="34" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="130" t="s">
+      <c r="A34" s="162" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="130"/>
-      <c r="D34" s="126"/>
-      <c r="F34" s="126"/>
-      <c r="G34" s="126"/>
-      <c r="H34" s="126"/>
-      <c r="I34" s="126"/>
-      <c r="J34" s="131"/>
-      <c r="K34" s="131"/>
-      <c r="L34" s="131"/>
+      <c r="B34" s="162"/>
+      <c r="D34" s="123"/>
+      <c r="F34" s="123"/>
+      <c r="G34" s="123"/>
+      <c r="H34" s="197"/>
+      <c r="I34" s="197"/>
+      <c r="J34" s="198"/>
+      <c r="K34" s="198"/>
+      <c r="L34" s="198"/>
     </row>
     <row r="35" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="132"/>
-      <c r="B35" s="132"/>
-      <c r="D35" s="133" t="s">
+      <c r="A35" s="163"/>
+      <c r="B35" s="163"/>
+      <c r="D35" s="164" t="s">
         <v>79</v>
       </c>
-      <c r="E35" s="133"/>
-      <c r="F35" s="126"/>
-      <c r="G35" s="126"/>
-      <c r="H35" s="126"/>
-      <c r="I35" s="126"/>
-      <c r="J35" s="131"/>
-      <c r="K35" s="131"/>
-      <c r="L35" s="131"/>
+      <c r="E35" s="164"/>
+      <c r="F35" s="123"/>
+      <c r="G35" s="123"/>
+      <c r="H35" s="197"/>
+      <c r="I35" s="197"/>
+      <c r="J35" s="198"/>
+      <c r="K35" s="198"/>
+      <c r="L35" s="198"/>
     </row>
     <row r="36" spans="1:12" ht="13.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="132"/>
-      <c r="B36" s="132"/>
-      <c r="D36" s="126"/>
-      <c r="F36" s="126"/>
-      <c r="G36" s="126"/>
-      <c r="H36" s="126"/>
-      <c r="I36" s="126"/>
-      <c r="J36" s="131"/>
-      <c r="K36" s="131"/>
-      <c r="L36" s="131"/>
+      <c r="A36" s="163"/>
+      <c r="B36" s="163"/>
+      <c r="D36" s="123"/>
+      <c r="F36" s="123"/>
+      <c r="G36" s="123"/>
+      <c r="H36" s="197"/>
+      <c r="I36" s="197"/>
+      <c r="J36" s="198"/>
+      <c r="K36" s="198"/>
+      <c r="L36" s="198"/>
     </row>
     <row r="37" spans="1:12" ht="13.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="132"/>
-      <c r="B37" s="132"/>
-      <c r="D37" s="125"/>
-      <c r="F37" s="126"/>
-      <c r="G37" s="126"/>
-      <c r="H37" s="126"/>
-      <c r="I37" s="126"/>
-      <c r="J37" s="131"/>
-      <c r="K37" s="131"/>
-      <c r="L37" s="131"/>
+      <c r="A37" s="163"/>
+      <c r="B37" s="163"/>
+      <c r="D37" s="122"/>
+      <c r="F37" s="123"/>
+      <c r="G37" s="123"/>
+      <c r="H37" s="197"/>
+      <c r="I37" s="197"/>
+      <c r="J37" s="198"/>
+      <c r="K37" s="198"/>
+      <c r="L37" s="198"/>
     </row>
     <row r="38" spans="1:12" ht="13.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="132"/>
-      <c r="B38" s="132"/>
-      <c r="D38" s="128"/>
-      <c r="F38" s="126"/>
-      <c r="G38" s="126"/>
-      <c r="H38" s="126"/>
-      <c r="I38" s="126"/>
-      <c r="J38" s="131"/>
-      <c r="K38" s="131"/>
-      <c r="L38" s="131"/>
+      <c r="A38" s="163"/>
+      <c r="B38" s="163"/>
+      <c r="D38" s="124"/>
+      <c r="F38" s="123"/>
+      <c r="G38" s="123"/>
+      <c r="H38" s="197"/>
+      <c r="I38" s="197"/>
+      <c r="J38" s="198"/>
+      <c r="K38" s="198"/>
+      <c r="L38" s="198"/>
     </row>
     <row r="39" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="128"/>
-      <c r="D39" s="125" t="s">
+      <c r="B39" s="124"/>
+      <c r="D39" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="F39" s="126"/>
-      <c r="G39" s="126"/>
-      <c r="H39" s="126" t="s">
+      <c r="F39" s="123"/>
+      <c r="G39" s="123"/>
+      <c r="H39" s="197" t="s">
         <v>81</v>
       </c>
-      <c r="I39" s="127"/>
-      <c r="J39" s="131" t="s">
+      <c r="I39" s="199"/>
+      <c r="J39" s="198" t="s">
         <v>77</v>
       </c>
-      <c r="K39" s="131"/>
-      <c r="L39" s="131"/>
+      <c r="K39" s="198"/>
+      <c r="L39" s="198"/>
     </row>
     <row r="40" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="128"/>
-      <c r="C40" s="104">
+      <c r="B40" s="124"/>
+      <c r="C40" s="101">
         <v>1</v>
       </c>
-      <c r="D40" s="128"/>
-      <c r="F40" s="126"/>
-      <c r="G40" s="126"/>
-      <c r="H40" s="126" t="s">
+      <c r="D40" s="124"/>
+      <c r="F40" s="123"/>
+      <c r="G40" s="123"/>
+      <c r="H40" s="197" t="s">
         <v>82</v>
       </c>
-      <c r="I40" s="127"/>
-      <c r="J40" s="131" t="s">
+      <c r="I40" s="199"/>
+      <c r="J40" s="198" t="s">
         <v>83</v>
       </c>
-      <c r="K40" s="131"/>
-      <c r="L40" s="131"/>
+      <c r="K40" s="198"/>
+      <c r="L40" s="198"/>
     </row>
     <row r="41" spans="1:12" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="D41" s="125"/>
+      <c r="D41" s="122"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D42" s="128"/>
+      <c r="D42" s="124"/>
     </row>
     <row r="43" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D43" s="129" t="s">
+      <c r="D43" s="160" t="s">
         <v>84</v>
       </c>
-      <c r="E43" s="129"/>
+      <c r="E43" s="160"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C44" s="104">
+      <c r="C44" s="101">
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="D47" s="129" t="s">
+      <c r="D47" s="160" t="s">
         <v>85</v>
       </c>
-      <c r="E47" s="129"/>
+      <c r="E47" s="160"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="128"/>
+      <c r="A48" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="J33:L38"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="D43:E43"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="F26:H26"/>
     <mergeCell ref="I26:J26"/>
@@ -3968,20 +3938,65 @@
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="E31:F32"/>
-    <mergeCell ref="G31:L31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="J33:L38"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3990,10 +4005,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I94"/>
+  <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D45" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView showGridLines="0" topLeftCell="D57" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="M68" sqref="M68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4009,9 +4024,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="101"/>
-      <c r="B1" s="102"/>
-      <c r="C1" s="103"/>
+      <c r="A1" s="98"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="100"/>
       <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
@@ -4021,43 +4036,43 @@
       <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="170" t="s">
+      <c r="A2" s="180" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="171" t="s">
+      <c r="A3" s="181" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="171"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="171"/>
-      <c r="I3" s="171"/>
+      <c r="B3" s="181"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="181"/>
+      <c r="F3" s="181"/>
+      <c r="G3" s="181"/>
+      <c r="H3" s="181"/>
+      <c r="I3" s="181"/>
     </row>
     <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="171" t="s">
+      <c r="A4" s="181" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="171"/>
-      <c r="C4" s="171"/>
-      <c r="D4" s="171"/>
-      <c r="E4" s="171"/>
-      <c r="F4" s="171"/>
-      <c r="G4" s="171"/>
-      <c r="H4" s="171"/>
-      <c r="I4" s="171"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -4070,47 +4085,47 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" ht="21" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="175" t="s">
+      <c r="A6" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="177" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="187" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="172" t="s">
+      <c r="D6" s="182" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="173"/>
-      <c r="F6" s="173"/>
-      <c r="G6" s="173"/>
-      <c r="H6" s="173"/>
-      <c r="I6" s="174"/>
+      <c r="E6" s="183"/>
+      <c r="F6" s="183"/>
+      <c r="G6" s="183"/>
+      <c r="H6" s="183"/>
+      <c r="I6" s="184"/>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="176"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="178"/>
-      <c r="D7" s="84" t="s">
+      <c r="A7" s="186"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="188"/>
+      <c r="D7" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="85" t="s">
+      <c r="E7" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="85" t="s">
+      <c r="F7" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="85" t="s">
+      <c r="G7" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="85"/>
-      <c r="I7" s="86"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="83"/>
     </row>
     <row r="8" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
         <v>1</v>
       </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="53">
+      <c r="B8" s="50"/>
+      <c r="C8" s="51">
         <v>2</v>
       </c>
       <c r="D8" s="17">
@@ -4128,42 +4143,42 @@
       <c r="H8" s="20">
         <v>7</v>
       </c>
-      <c r="I8" s="72">
+      <c r="I8" s="69">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="63" t="s">
+      <c r="A9" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="52"/>
+      <c r="C9" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="73"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="70"/>
     </row>
     <row r="10" spans="1:9" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="56"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="54"/>
       <c r="D10" s="3"/>
       <c r="E10" s="9"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="74"/>
+      <c r="I10" s="71"/>
     </row>
     <row r="11" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="183" t="s">
+      <c r="A11" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="184"/>
-      <c r="C11" s="185"/>
+      <c r="B11" s="176"/>
+      <c r="C11" s="177"/>
       <c r="D11" s="11" t="s">
         <v>2</v>
       </c>
@@ -4179,29 +4194,29 @@
       <c r="H11" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I11" s="75" t="s">
+      <c r="I11" s="72" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="76"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="73"/>
     </row>
     <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="45">
+      <c r="A13" s="43">
         <v>1</v>
       </c>
-      <c r="B13" s="186" t="s">
+      <c r="B13" s="165" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="187"/>
+      <c r="C13" s="166"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13" t="s">
         <v>38</v>
@@ -4209,253 +4224,253 @@
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
-      <c r="I13" s="77"/>
+      <c r="I13" s="74"/>
     </row>
     <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="45">
-        <v>2</v>
-      </c>
-      <c r="B14" s="59" t="s">
+      <c r="A14" s="43">
+        <v>2</v>
+      </c>
+      <c r="B14" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="51"/>
+      <c r="C14" s="49"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
-      <c r="I14" s="77"/>
+      <c r="I14" s="74"/>
     </row>
     <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="45">
+      <c r="A15" s="43">
         <v>3</v>
       </c>
-      <c r="B15" s="186" t="s">
+      <c r="B15" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="187"/>
+      <c r="C15" s="166"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
-      <c r="I15" s="77"/>
+      <c r="I15" s="74"/>
     </row>
     <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="45">
+      <c r="A16" s="43">
         <v>4</v>
       </c>
-      <c r="B16" s="186" t="s">
+      <c r="B16" s="165" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="187"/>
+      <c r="C16" s="166"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
-      <c r="I16" s="77"/>
+      <c r="I16" s="74"/>
     </row>
     <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="50">
+      <c r="A17" s="48">
         <v>5</v>
       </c>
-      <c r="B17" s="188" t="s">
+      <c r="B17" s="178" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="189"/>
+      <c r="C17" s="179"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
-      <c r="I17" s="77"/>
+      <c r="I17" s="74"/>
     </row>
     <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="45">
+      <c r="A18" s="43">
         <v>6</v>
       </c>
-      <c r="B18" s="179" t="s">
+      <c r="B18" s="171" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="180"/>
+      <c r="C18" s="172"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
-      <c r="I18" s="77"/>
+      <c r="I18" s="74"/>
     </row>
     <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="45">
+      <c r="A19" s="43">
         <v>7</v>
       </c>
-      <c r="B19" s="181" t="s">
+      <c r="B19" s="173" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="182"/>
+      <c r="C19" s="174"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
-      <c r="I19" s="77"/>
+      <c r="I19" s="74"/>
     </row>
     <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="45">
+      <c r="A20" s="43">
         <v>8</v>
       </c>
-      <c r="B20" s="186" t="s">
+      <c r="B20" s="165" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="187"/>
+      <c r="C20" s="166"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
-      <c r="I20" s="77"/>
+      <c r="I20" s="74"/>
     </row>
     <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="45">
+      <c r="A21" s="43">
         <v>9</v>
       </c>
-      <c r="B21" s="186" t="s">
+      <c r="B21" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="187"/>
+      <c r="C21" s="166"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
-      <c r="I21" s="77"/>
+      <c r="I21" s="74"/>
     </row>
     <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="45">
+      <c r="A22" s="43">
         <v>10</v>
       </c>
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="51"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
-      <c r="I22" s="77"/>
+      <c r="I22" s="74"/>
     </row>
     <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="45">
+      <c r="A23" s="43">
         <v>11</v>
       </c>
-      <c r="B23" s="60"/>
-      <c r="C23" s="61"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="59"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
-      <c r="I23" s="77"/>
+      <c r="I23" s="74"/>
     </row>
     <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="45">
+      <c r="A24" s="43">
         <v>12</v>
       </c>
-      <c r="B24" s="60"/>
-      <c r="C24" s="61"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="59"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
-      <c r="I24" s="77"/>
+      <c r="I24" s="74"/>
     </row>
     <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="45">
+      <c r="A25" s="43">
         <v>13</v>
       </c>
-      <c r="B25" s="59"/>
-      <c r="C25" s="51"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
-      <c r="I25" s="77"/>
+      <c r="I25" s="74"/>
     </row>
     <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="45">
+      <c r="A26" s="43">
         <v>14</v>
       </c>
-      <c r="B26" s="59"/>
-      <c r="C26" s="51"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="49"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
-      <c r="I26" s="77"/>
+      <c r="I26" s="74"/>
     </row>
     <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="45">
+      <c r="A27" s="43">
         <v>15</v>
       </c>
-      <c r="B27" s="59"/>
-      <c r="C27" s="51"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="49"/>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
-      <c r="I27" s="77"/>
+      <c r="I27" s="74"/>
     </row>
     <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="45">
+      <c r="A28" s="43">
         <v>16</v>
       </c>
-      <c r="B28" s="59"/>
-      <c r="C28" s="51"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="49"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
-      <c r="I28" s="77"/>
+      <c r="I28" s="74"/>
     </row>
     <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="45">
+      <c r="A29" s="43">
         <v>17</v>
       </c>
-      <c r="B29" s="59"/>
-      <c r="C29" s="51"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="49"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
-      <c r="I29" s="77"/>
+      <c r="I29" s="74"/>
     </row>
     <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="45">
+      <c r="A30" s="43">
         <v>18</v>
       </c>
-      <c r="B30" s="59"/>
-      <c r="C30" s="51"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="49"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
-      <c r="I30" s="77"/>
+      <c r="I30" s="74"/>
     </row>
     <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" s="92"/>
-      <c r="C31" s="93"/>
+      <c r="A31" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="89"/>
+      <c r="C31" s="90"/>
       <c r="D31" s="14" t="s">
         <v>2</v>
       </c>
@@ -4471,67 +4486,67 @@
       <c r="H31" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="I31" s="78" t="s">
+      <c r="I31" s="75" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="22"/>
-      <c r="B32" s="98"/>
-      <c r="C32" s="83" t="s">
+      <c r="B32" s="95"/>
+      <c r="C32" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="99"/>
-      <c r="E32" s="99" t="s">
+      <c r="D32" s="96"/>
+      <c r="E32" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="F32" s="99" t="s">
+      <c r="F32" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="G32" s="99" t="s">
+      <c r="G32" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="H32" s="99"/>
-      <c r="I32" s="100"/>
+      <c r="H32" s="96"/>
+      <c r="I32" s="97"/>
     </row>
     <row r="33" spans="1:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" s="94"/>
-      <c r="C33" s="95" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="96"/>
-      <c r="E33" s="96" t="s">
-        <v>2</v>
-      </c>
-      <c r="F33" s="96"/>
-      <c r="G33" s="96"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="97"/>
+      <c r="A33" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="91"/>
+      <c r="C33" s="92" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="93"/>
+      <c r="E33" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" s="93"/>
+      <c r="G33" s="93"/>
+      <c r="H33" s="93"/>
+      <c r="I33" s="94"/>
     </row>
     <row r="34" spans="1:9" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="B34" s="47"/>
-      <c r="C34" s="62" t="s">
+      <c r="A34" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="45"/>
+      <c r="C34" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="79"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="76"/>
     </row>
     <row r="35" spans="1:9" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="64">
+      <c r="A35" s="62">
         <v>1</v>
       </c>
-      <c r="B35" s="48"/>
-      <c r="C35" s="30" t="s">
+      <c r="B35" s="46"/>
+      <c r="C35" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="13"/>
@@ -4539,13 +4554,13 @@
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
-      <c r="I35" s="82"/>
+      <c r="I35" s="79"/>
     </row>
     <row r="36" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="65">
-        <v>2</v>
-      </c>
-      <c r="B36" s="49"/>
+      <c r="A36" s="63">
+        <v>2</v>
+      </c>
+      <c r="B36" s="47"/>
       <c r="C36" s="16" t="s">
         <v>21</v>
       </c>
@@ -4556,13 +4571,13 @@
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
-      <c r="I36" s="82"/>
+      <c r="I36" s="79"/>
     </row>
     <row r="37" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="65">
+      <c r="A37" s="63">
         <v>3</v>
       </c>
-      <c r="B37" s="49"/>
+      <c r="B37" s="47"/>
       <c r="C37" s="16" t="s">
         <v>22</v>
       </c>
@@ -4571,13 +4586,13 @@
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
-      <c r="I37" s="77"/>
+      <c r="I37" s="74"/>
     </row>
     <row r="38" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="65">
+      <c r="A38" s="63">
         <v>4</v>
       </c>
-      <c r="B38" s="49"/>
+      <c r="B38" s="47"/>
       <c r="C38" s="16" t="s">
         <v>23</v>
       </c>
@@ -4586,13 +4601,13 @@
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
-      <c r="I38" s="77"/>
+      <c r="I38" s="74"/>
     </row>
     <row r="39" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="66">
+      <c r="A39" s="64">
         <v>5</v>
       </c>
-      <c r="B39" s="46"/>
+      <c r="B39" s="44"/>
       <c r="C39" s="16" t="s">
         <v>24</v>
       </c>
@@ -4603,13 +4618,13 @@
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
-      <c r="I39" s="82"/>
+      <c r="I39" s="79"/>
     </row>
     <row r="40" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="66">
+      <c r="A40" s="64">
         <v>6</v>
       </c>
-      <c r="B40" s="46"/>
+      <c r="B40" s="44"/>
       <c r="C40" s="16" t="s">
         <v>25</v>
       </c>
@@ -4618,28 +4633,28 @@
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
       <c r="H40" s="13"/>
-      <c r="I40" s="77"/>
+      <c r="I40" s="74"/>
     </row>
     <row r="41" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="66">
+      <c r="A41" s="64">
         <v>7</v>
       </c>
-      <c r="B41" s="46"/>
+      <c r="B41" s="44"/>
       <c r="C41" s="16" t="s">
         <v>26</v>
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
-      <c r="F41" s="81"/>
+      <c r="F41" s="78"/>
       <c r="G41" s="13"/>
-      <c r="H41" s="81"/>
-      <c r="I41" s="77"/>
+      <c r="H41" s="78"/>
+      <c r="I41" s="74"/>
     </row>
     <row r="42" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="66">
+      <c r="A42" s="64">
         <v>8</v>
       </c>
-      <c r="B42" s="46"/>
+      <c r="B42" s="44"/>
       <c r="C42" s="16" t="s">
         <v>18</v>
       </c>
@@ -4648,13 +4663,13 @@
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
       <c r="H42" s="13"/>
-      <c r="I42" s="77"/>
+      <c r="I42" s="74"/>
     </row>
     <row r="43" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="66">
+      <c r="A43" s="64">
         <v>9</v>
       </c>
-      <c r="B43" s="46"/>
+      <c r="B43" s="44"/>
       <c r="C43" s="16" t="s">
         <v>42</v>
       </c>
@@ -4663,38 +4678,38 @@
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
       <c r="H43" s="13"/>
-      <c r="I43" s="77"/>
+      <c r="I43" s="74"/>
     </row>
     <row r="44" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="66">
+      <c r="A44" s="64">
         <v>10</v>
       </c>
-      <c r="B44" s="46"/>
+      <c r="B44" s="44"/>
       <c r="C44" s="16"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
-      <c r="I44" s="77"/>
+      <c r="I44" s="74"/>
     </row>
     <row r="45" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="66">
+      <c r="A45" s="64">
         <v>11</v>
       </c>
-      <c r="B45" s="46"/>
+      <c r="B45" s="44"/>
       <c r="C45" s="16"/>
       <c r="D45" s="13"/>
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
       <c r="H45" s="13"/>
-      <c r="I45" s="77"/>
+      <c r="I45" s="74"/>
     </row>
     <row r="46" spans="1:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="22"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="67" t="s">
+      <c r="B46" s="44"/>
+      <c r="C46" s="65" t="s">
         <v>2</v>
       </c>
       <c r="D46" s="14" t="s">
@@ -4704,92 +4719,92 @@
       <c r="F46" s="14"/>
       <c r="G46" s="14"/>
       <c r="H46" s="14"/>
-      <c r="I46" s="78"/>
+      <c r="I46" s="75"/>
     </row>
     <row r="47" spans="1:9" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="68"/>
-      <c r="B47" s="69"/>
-      <c r="C47" s="83" t="s">
+      <c r="A47" s="66"/>
+      <c r="B47" s="67"/>
+      <c r="C47" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="71"/>
-      <c r="E47" s="71" t="s">
+      <c r="D47" s="68"/>
+      <c r="E47" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="F47" s="71" t="s">
+      <c r="F47" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="G47" s="71"/>
-      <c r="H47" s="71"/>
-      <c r="I47" s="80"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="68"/>
+      <c r="I47" s="77"/>
     </row>
     <row r="48" spans="1:9" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
-      <c r="C48" s="87"/>
+      <c r="C48" s="84"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
       <c r="G48" s="15"/>
       <c r="H48" s="15"/>
-      <c r="I48" s="35"/>
-    </row>
-    <row r="49" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I48" s="33"/>
+    </row>
+    <row r="49" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
-      <c r="C49" s="88" t="s">
+      <c r="C49" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="D49" s="89"/>
+      <c r="D49" s="86"/>
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
       <c r="G49" s="15"/>
       <c r="H49" s="15"/>
       <c r="I49" s="15"/>
     </row>
-    <row r="50" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
-      <c r="C50" s="193" t="s">
+      <c r="C50" s="169" t="s">
         <v>37</v>
       </c>
-      <c r="D50" s="194"/>
+      <c r="D50" s="170"/>
       <c r="E50" s="15"/>
       <c r="F50" s="15"/>
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
       <c r="I50" s="15"/>
     </row>
-    <row r="51" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
-      <c r="C51" s="193" t="s">
+      <c r="C51" s="169" t="s">
         <v>32</v>
       </c>
-      <c r="D51" s="194"/>
+      <c r="D51" s="170"/>
       <c r="E51" s="15"/>
       <c r="F51" s="15"/>
       <c r="G51" s="15"/>
       <c r="H51" s="15"/>
       <c r="I51" s="15"/>
     </row>
-    <row r="52" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
-      <c r="C52" s="90" t="s">
+      <c r="C52" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="D52" s="91"/>
+      <c r="D52" s="88"/>
       <c r="E52" s="15"/>
       <c r="F52" s="15"/>
       <c r="G52" s="15"/>
       <c r="H52" s="15"/>
       <c r="I52" s="15"/>
     </row>
-    <row r="53" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
-      <c r="C53" s="87"/>
+      <c r="C53" s="84"/>
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
       <c r="F53" s="15"/>
@@ -4797,10 +4812,10 @@
       <c r="H53" s="15"/>
       <c r="I53" s="15"/>
     </row>
-    <row r="54" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
-      <c r="C54" s="87"/>
+      <c r="C54" s="84"/>
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
       <c r="F54" s="15"/>
@@ -4808,10 +4823,10 @@
       <c r="H54" s="15"/>
       <c r="I54" s="15"/>
     </row>
-    <row r="55" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
-      <c r="C55" s="87"/>
+      <c r="C55" s="84"/>
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
       <c r="F55" s="15"/>
@@ -4819,23 +4834,23 @@
       <c r="H55" s="15"/>
       <c r="I55" s="15"/>
     </row>
-    <row r="56" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
-      <c r="C56" s="87"/>
+      <c r="C56" s="84"/>
       <c r="D56" s="15"/>
-      <c r="E56" s="191" t="s">
+      <c r="E56" s="167" t="s">
         <v>89</v>
       </c>
-      <c r="F56" s="191"/>
-      <c r="G56" s="191"/>
-      <c r="H56" s="191"/>
-      <c r="I56" s="191"/>
-    </row>
-    <row r="57" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F56" s="167"/>
+      <c r="G56" s="167"/>
+      <c r="H56" s="167"/>
+      <c r="I56" s="167"/>
+    </row>
+    <row r="57" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
-      <c r="C57" s="87"/>
+      <c r="C57" s="84"/>
       <c r="D57" s="15"/>
       <c r="E57" s="15"/>
       <c r="F57" s="15"/>
@@ -4843,55 +4858,55 @@
       <c r="H57" s="15"/>
       <c r="I57" s="15"/>
     </row>
-    <row r="58" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="9"/>
       <c r="D58" s="6"/>
-      <c r="E58" s="192" t="s">
+      <c r="E58" s="168" t="s">
         <v>92</v>
       </c>
-      <c r="F58" s="192"/>
-      <c r="G58" s="192"/>
-      <c r="H58" s="192"/>
-      <c r="I58" s="192"/>
-    </row>
-    <row r="59" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="F58" s="168"/>
+      <c r="G58" s="168"/>
+      <c r="H58" s="168"/>
+      <c r="I58" s="168"/>
+    </row>
+    <row r="59" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="9"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="192" t="s">
+      <c r="E59" s="168" t="s">
         <v>7</v>
       </c>
-      <c r="F59" s="192"/>
-      <c r="G59" s="192"/>
-      <c r="H59" s="192"/>
-      <c r="I59" s="192"/>
-    </row>
-    <row r="60" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="F59" s="168"/>
+      <c r="G59" s="168"/>
+      <c r="H59" s="168"/>
+      <c r="I59" s="168"/>
+    </row>
+    <row r="60" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="9"/>
       <c r="D60" s="6"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="36"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="36"/>
-    </row>
-    <row r="61" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="34"/>
+    </row>
+    <row r="61" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="9"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="36"/>
-      <c r="G61" s="36"/>
-      <c r="H61" s="36"/>
-      <c r="I61" s="36"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="34"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="9"/>
@@ -4902,7 +4917,7 @@
       <c r="H62" s="7"/>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A63" s="23" t="s">
         <v>2</v>
       </c>
@@ -4913,32 +4928,36 @@
       <c r="D63" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E63" s="70">
+      <c r="E63" s="189">
         <v>1</v>
       </c>
-      <c r="F63" s="26"/>
-      <c r="G63" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="H63" s="26" t="s">
+      <c r="F63" s="190"/>
+      <c r="G63" s="190" t="s">
+        <v>2</v>
+      </c>
+      <c r="H63" s="190" t="s">
         <v>4</v>
       </c>
-      <c r="I63" s="24"/>
-    </row>
-    <row r="64" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="I63" s="191"/>
+      <c r="J63" s="192"/>
+      <c r="K63" s="192"/>
+    </row>
+    <row r="64" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="23"/>
       <c r="B64" s="23"/>
       <c r="C64" s="24"/>
       <c r="D64" s="25"/>
-      <c r="E64" s="70"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="H64" s="26"/>
-      <c r="I64" s="24"/>
-    </row>
-    <row r="65" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="E64" s="189"/>
+      <c r="F64" s="190"/>
+      <c r="G64" s="190" t="s">
+        <v>2</v>
+      </c>
+      <c r="H64" s="190"/>
+      <c r="I64" s="191"/>
+      <c r="J64" s="192"/>
+      <c r="K64" s="192"/>
+    </row>
+    <row r="65" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A65" s="23" t="s">
         <v>2</v>
       </c>
@@ -4949,413 +4968,450 @@
       <c r="D65" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E65" s="70">
-        <v>2</v>
-      </c>
-      <c r="F65" s="26"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="24" t="s">
+      <c r="E65" s="189">
+        <v>2</v>
+      </c>
+      <c r="F65" s="190"/>
+      <c r="G65" s="190"/>
+      <c r="H65" s="190"/>
+      <c r="I65" s="191" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J65" s="192"/>
+      <c r="K65" s="192"/>
+    </row>
+    <row r="66" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A66" s="23"/>
       <c r="B66" s="23"/>
       <c r="C66" s="24"/>
       <c r="D66" s="25"/>
-      <c r="E66" s="70"/>
-      <c r="F66" s="26"/>
-      <c r="G66" s="26"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="24"/>
-    </row>
-    <row r="67" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A67" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B67" s="28"/>
-      <c r="C67" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D67" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="E67" s="29">
+      <c r="E66" s="189"/>
+      <c r="F66" s="190"/>
+      <c r="G66" s="190"/>
+      <c r="H66" s="190"/>
+      <c r="I66" s="191"/>
+      <c r="J66" s="192"/>
+      <c r="K66" s="192"/>
+    </row>
+    <row r="67" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A67" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" s="27"/>
+      <c r="C67" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67" s="193">
         <v>3</v>
       </c>
-      <c r="F67" s="190"/>
-      <c r="G67" s="190"/>
-      <c r="H67" s="27" t="s">
+      <c r="F67" s="194"/>
+      <c r="G67" s="194"/>
+      <c r="H67" s="195" t="s">
         <v>4</v>
       </c>
-      <c r="I67" s="27"/>
-    </row>
-    <row r="68" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A68" s="28"/>
-      <c r="B68" s="28"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="29"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="27"/>
-      <c r="I68" s="27"/>
-    </row>
-    <row r="69" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A69" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B69" s="28"/>
-      <c r="C69" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D69" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="E69" s="29">
+      <c r="I67" s="195"/>
+      <c r="J67" s="192"/>
+      <c r="K67" s="192"/>
+    </row>
+    <row r="68" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A68" s="27"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="193"/>
+      <c r="F68" s="195"/>
+      <c r="G68" s="195"/>
+      <c r="H68" s="195"/>
+      <c r="I68" s="195"/>
+      <c r="J68" s="192"/>
+      <c r="K68" s="192"/>
+    </row>
+    <row r="69" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A69" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="27"/>
+      <c r="C69" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E69" s="193">
         <v>4</v>
       </c>
-      <c r="F69" s="27"/>
-      <c r="G69" s="27"/>
-      <c r="H69" s="27"/>
-      <c r="I69" s="27" t="s">
+      <c r="F69" s="195"/>
+      <c r="G69" s="195"/>
+      <c r="H69" s="195"/>
+      <c r="I69" s="195" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A70" s="28"/>
-      <c r="B70" s="28"/>
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="29"/>
-      <c r="F70" s="27"/>
-      <c r="G70" s="27"/>
-      <c r="H70" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="I70" s="27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A71" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B71" s="28"/>
-      <c r="C71" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D71" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="E71" s="29">
+      <c r="J69" s="192"/>
+      <c r="K69" s="192"/>
+    </row>
+    <row r="70" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A70" s="27"/>
+      <c r="B70" s="27"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="193"/>
+      <c r="F70" s="195"/>
+      <c r="G70" s="195"/>
+      <c r="H70" s="195" t="s">
+        <v>2</v>
+      </c>
+      <c r="I70" s="195" t="s">
+        <v>2</v>
+      </c>
+      <c r="J70" s="192"/>
+      <c r="K70" s="192"/>
+    </row>
+    <row r="71" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A71" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71" s="27"/>
+      <c r="C71" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E71" s="193">
         <v>5</v>
       </c>
-      <c r="F71" s="190"/>
-      <c r="G71" s="190"/>
-      <c r="H71" s="27" t="s">
+      <c r="F71" s="194"/>
+      <c r="G71" s="194"/>
+      <c r="H71" s="195" t="s">
         <v>4</v>
       </c>
-      <c r="I71" s="27"/>
-    </row>
-    <row r="72" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A72" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B72" s="28"/>
-      <c r="C72" s="27"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="28"/>
-      <c r="F72" s="27"/>
-      <c r="G72" s="27"/>
-      <c r="H72" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="I72" s="27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A73" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B73" s="28"/>
-      <c r="C73" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D73" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="E73" s="29">
+      <c r="I71" s="195"/>
+      <c r="J71" s="192"/>
+      <c r="K71" s="192"/>
+    </row>
+    <row r="72" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A72" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" s="27"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="196"/>
+      <c r="F72" s="195"/>
+      <c r="G72" s="195"/>
+      <c r="H72" s="195" t="s">
+        <v>2</v>
+      </c>
+      <c r="I72" s="195" t="s">
+        <v>2</v>
+      </c>
+      <c r="J72" s="192"/>
+      <c r="K72" s="192"/>
+    </row>
+    <row r="73" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A73" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" s="27"/>
+      <c r="C73" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E73" s="193">
         <v>6</v>
       </c>
-      <c r="F73" s="27"/>
-      <c r="G73" s="27"/>
-      <c r="H73" s="27"/>
-      <c r="I73" s="27" t="s">
+      <c r="F73" s="195"/>
+      <c r="G73" s="195"/>
+      <c r="H73" s="195"/>
+      <c r="I73" s="195" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A74" s="28"/>
-      <c r="B74" s="28"/>
-      <c r="C74" s="27"/>
-      <c r="D74" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="E74" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="F74" s="27"/>
-      <c r="G74" s="27"/>
-      <c r="H74" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="I74" s="27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A75" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B75" s="28"/>
-      <c r="C75" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D75" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="E75" s="29">
+      <c r="J73" s="192"/>
+      <c r="K73" s="192"/>
+    </row>
+    <row r="74" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A74" s="27"/>
+      <c r="B74" s="27"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E74" s="193" t="s">
+        <v>2</v>
+      </c>
+      <c r="F74" s="195"/>
+      <c r="G74" s="195"/>
+      <c r="H74" s="195" t="s">
+        <v>2</v>
+      </c>
+      <c r="I74" s="195" t="s">
+        <v>2</v>
+      </c>
+      <c r="J74" s="192"/>
+      <c r="K74" s="192"/>
+    </row>
+    <row r="75" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A75" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75" s="27"/>
+      <c r="C75" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E75" s="193">
         <v>7</v>
       </c>
-      <c r="F75" s="190"/>
-      <c r="G75" s="190"/>
-      <c r="H75" s="27" t="s">
+      <c r="F75" s="194"/>
+      <c r="G75" s="194"/>
+      <c r="H75" s="195" t="s">
         <v>4</v>
       </c>
-      <c r="I75" s="27"/>
-    </row>
-    <row r="76" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A76" s="28"/>
-      <c r="B76" s="28"/>
-      <c r="C76" s="27"/>
-      <c r="D76" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="E76" s="27"/>
-      <c r="F76" s="29"/>
-      <c r="G76" s="27"/>
-      <c r="H76" s="27"/>
-      <c r="I76" s="27"/>
-    </row>
-    <row r="77" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A77" s="28"/>
-      <c r="B77" s="28"/>
-      <c r="C77" s="27"/>
-      <c r="D77" s="27"/>
-      <c r="E77" s="27"/>
-      <c r="F77" s="27"/>
-      <c r="G77" s="27"/>
-      <c r="H77" s="27"/>
-      <c r="I77" s="27"/>
-    </row>
-    <row r="78" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A78" s="28"/>
-      <c r="B78" s="28"/>
-      <c r="C78" s="27"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="27"/>
-      <c r="G78" s="27"/>
-      <c r="H78" s="27"/>
-      <c r="I78" s="27"/>
-    </row>
-    <row r="79" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A79" s="28"/>
-      <c r="B79" s="28"/>
-      <c r="C79" s="27"/>
-      <c r="D79" s="27"/>
-      <c r="E79" s="27"/>
-      <c r="F79" s="27"/>
-      <c r="G79" s="27"/>
-      <c r="H79" s="27"/>
-      <c r="I79" s="27"/>
-    </row>
-    <row r="80" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A80" s="28"/>
-      <c r="B80" s="28"/>
-      <c r="C80" s="27"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="27"/>
-      <c r="F80" s="27"/>
-      <c r="G80" s="27"/>
-      <c r="H80" s="27"/>
-      <c r="I80" s="27"/>
+      <c r="I75" s="195"/>
+      <c r="J75" s="192"/>
+      <c r="K75" s="192"/>
+    </row>
+    <row r="76" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A76" s="27"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E76" s="195"/>
+      <c r="F76" s="193"/>
+      <c r="G76" s="195"/>
+      <c r="H76" s="195"/>
+      <c r="I76" s="195"/>
+      <c r="J76" s="192"/>
+      <c r="K76" s="192"/>
+    </row>
+    <row r="77" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A77" s="27"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="26"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="26"/>
+      <c r="H77" s="26"/>
+      <c r="I77" s="26"/>
+    </row>
+    <row r="78" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A78" s="27"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="26"/>
+      <c r="I78" s="26"/>
+    </row>
+    <row r="79" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A79" s="27"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="26"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="26"/>
+      <c r="I79" s="26"/>
+    </row>
+    <row r="80" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A80" s="27"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="26"/>
+      <c r="E80" s="26"/>
+      <c r="F80" s="26"/>
+      <c r="G80" s="26"/>
+      <c r="H80" s="26"/>
+      <c r="I80" s="26"/>
     </row>
     <row r="81" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A81" s="27"/>
-      <c r="B81" s="27"/>
-      <c r="C81" s="27"/>
-      <c r="D81" s="27"/>
-      <c r="E81" s="27"/>
-      <c r="F81" s="27"/>
-      <c r="G81" s="27"/>
-      <c r="H81" s="27"/>
-      <c r="I81" s="27"/>
+      <c r="A81" s="26"/>
+      <c r="B81" s="26"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="26"/>
+      <c r="E81" s="26"/>
+      <c r="F81" s="26"/>
+      <c r="G81" s="26"/>
+      <c r="H81" s="26"/>
+      <c r="I81" s="26"/>
     </row>
     <row r="82" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A82" s="27"/>
-      <c r="B82" s="27"/>
-      <c r="C82" s="27"/>
-      <c r="D82" s="27"/>
-      <c r="E82" s="27"/>
-      <c r="F82" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="G82" s="27"/>
-      <c r="H82" s="27"/>
-      <c r="I82" s="27"/>
+      <c r="A82" s="26"/>
+      <c r="B82" s="26"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="26"/>
+      <c r="E82" s="26"/>
+      <c r="F82" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G82" s="26"/>
+      <c r="H82" s="26"/>
+      <c r="I82" s="26"/>
     </row>
     <row r="83" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A83" s="27"/>
-      <c r="B83" s="27"/>
-      <c r="C83" s="27"/>
-      <c r="D83" s="27"/>
-      <c r="E83" s="27"/>
-      <c r="F83" s="27"/>
-      <c r="G83" s="27"/>
-      <c r="H83" s="27"/>
-      <c r="I83" s="27"/>
+      <c r="A83" s="26"/>
+      <c r="B83" s="26"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="26"/>
+      <c r="E83" s="26"/>
+      <c r="F83" s="26"/>
+      <c r="G83" s="26"/>
+      <c r="H83" s="26"/>
+      <c r="I83" s="26"/>
     </row>
     <row r="84" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A84" s="27"/>
-      <c r="B84" s="27"/>
-      <c r="C84" s="27"/>
-      <c r="D84" s="27"/>
-      <c r="E84" s="27"/>
-      <c r="F84" s="27"/>
-      <c r="G84" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="H84" s="27"/>
-      <c r="I84" s="27"/>
+      <c r="A84" s="26"/>
+      <c r="B84" s="26"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="26"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="26"/>
+      <c r="G84" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H84" s="26"/>
+      <c r="I84" s="26"/>
     </row>
     <row r="85" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A85" s="27"/>
-      <c r="B85" s="27"/>
-      <c r="C85" s="27"/>
-      <c r="D85" s="27"/>
-      <c r="E85" s="27"/>
-      <c r="F85" s="27"/>
-      <c r="G85" s="27"/>
-      <c r="H85" s="27"/>
-      <c r="I85" s="27"/>
+      <c r="A85" s="26"/>
+      <c r="B85" s="26"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="26"/>
+      <c r="E85" s="26"/>
+      <c r="F85" s="26"/>
+      <c r="G85" s="26"/>
+      <c r="H85" s="26"/>
+      <c r="I85" s="26"/>
     </row>
     <row r="86" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A86" s="27"/>
-      <c r="B86" s="27"/>
-      <c r="C86" s="27"/>
-      <c r="D86" s="27"/>
-      <c r="E86" s="27"/>
-      <c r="F86" s="27"/>
-      <c r="G86" s="27"/>
-      <c r="H86" s="27"/>
-      <c r="I86" s="27"/>
+      <c r="A86" s="26"/>
+      <c r="B86" s="26"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="26"/>
+      <c r="E86" s="26"/>
+      <c r="F86" s="26"/>
+      <c r="G86" s="26"/>
+      <c r="H86" s="26"/>
+      <c r="I86" s="26"/>
     </row>
     <row r="87" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A87" s="27"/>
-      <c r="B87" s="27"/>
-      <c r="C87" s="27"/>
-      <c r="D87" s="27"/>
-      <c r="E87" s="27"/>
-      <c r="F87" s="27"/>
-      <c r="G87" s="27"/>
-      <c r="H87" s="27"/>
-      <c r="I87" s="27"/>
+      <c r="A87" s="26"/>
+      <c r="B87" s="26"/>
+      <c r="C87" s="26"/>
+      <c r="D87" s="26"/>
+      <c r="E87" s="26"/>
+      <c r="F87" s="26"/>
+      <c r="G87" s="26"/>
+      <c r="H87" s="26"/>
+      <c r="I87" s="26"/>
     </row>
     <row r="88" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A88" s="27"/>
-      <c r="B88" s="27"/>
-      <c r="C88" s="27"/>
-      <c r="D88" s="27"/>
-      <c r="E88" s="27"/>
-      <c r="F88" s="27"/>
-      <c r="G88" s="27"/>
-      <c r="H88" s="27"/>
-      <c r="I88" s="27"/>
+      <c r="A88" s="26"/>
+      <c r="B88" s="26"/>
+      <c r="C88" s="26"/>
+      <c r="D88" s="26"/>
+      <c r="E88" s="26"/>
+      <c r="F88" s="26"/>
+      <c r="G88" s="26"/>
+      <c r="H88" s="26"/>
+      <c r="I88" s="26"/>
     </row>
     <row r="89" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A89" s="27"/>
-      <c r="B89" s="27"/>
-      <c r="C89" s="27"/>
-      <c r="D89" s="27"/>
-      <c r="E89" s="27"/>
-      <c r="F89" s="27"/>
-      <c r="G89" s="27"/>
-      <c r="H89" s="27"/>
-      <c r="I89" s="27"/>
+      <c r="A89" s="26"/>
+      <c r="B89" s="26"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="26"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="26"/>
+      <c r="G89" s="26"/>
+      <c r="H89" s="26"/>
+      <c r="I89" s="26"/>
     </row>
     <row r="90" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A90" s="27"/>
-      <c r="B90" s="27"/>
-      <c r="C90" s="27"/>
-      <c r="D90" s="27"/>
-      <c r="E90" s="27"/>
-      <c r="F90" s="27"/>
-      <c r="G90" s="27"/>
-      <c r="H90" s="27"/>
-      <c r="I90" s="27"/>
+      <c r="A90" s="26"/>
+      <c r="B90" s="26"/>
+      <c r="C90" s="26"/>
+      <c r="D90" s="26"/>
+      <c r="E90" s="26"/>
+      <c r="F90" s="26"/>
+      <c r="G90" s="26"/>
+      <c r="H90" s="26"/>
+      <c r="I90" s="26"/>
     </row>
     <row r="91" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A91" s="27"/>
-      <c r="B91" s="27"/>
-      <c r="C91" s="27"/>
-      <c r="D91" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="E91" s="27"/>
-      <c r="F91" s="27"/>
-      <c r="G91" s="27"/>
-      <c r="H91" s="27"/>
-      <c r="I91" s="27"/>
+      <c r="A91" s="26"/>
+      <c r="B91" s="26"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E91" s="26"/>
+      <c r="F91" s="26"/>
+      <c r="G91" s="26"/>
+      <c r="H91" s="26"/>
+      <c r="I91" s="26"/>
     </row>
     <row r="92" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A92" s="27"/>
-      <c r="B92" s="27"/>
-      <c r="C92" s="27"/>
-      <c r="D92" s="27"/>
-      <c r="E92" s="27"/>
-      <c r="F92" s="27"/>
-      <c r="G92" s="27"/>
-      <c r="H92" s="27"/>
-      <c r="I92" s="27"/>
+      <c r="A92" s="26"/>
+      <c r="B92" s="26"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="26"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="26"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="26"/>
+      <c r="I92" s="26"/>
     </row>
     <row r="93" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A93" s="27"/>
-      <c r="B93" s="27"/>
-      <c r="C93" s="27"/>
-      <c r="D93" s="27"/>
-      <c r="E93" s="27"/>
-      <c r="F93" s="27"/>
-      <c r="G93" s="27"/>
-      <c r="H93" s="27"/>
-      <c r="I93" s="27"/>
+      <c r="A93" s="26"/>
+      <c r="B93" s="26"/>
+      <c r="C93" s="26"/>
+      <c r="D93" s="26"/>
+      <c r="E93" s="26"/>
+      <c r="F93" s="26"/>
+      <c r="G93" s="26"/>
+      <c r="H93" s="26"/>
+      <c r="I93" s="26"/>
     </row>
     <row r="94" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A94" s="27"/>
-      <c r="B94" s="27"/>
-      <c r="C94" s="27"/>
-      <c r="D94" s="27"/>
-      <c r="E94" s="27"/>
-      <c r="F94" s="27"/>
-      <c r="G94" s="27"/>
-      <c r="H94" s="27"/>
-      <c r="I94" s="27"/>
+      <c r="A94" s="26"/>
+      <c r="B94" s="26"/>
+      <c r="C94" s="26"/>
+      <c r="D94" s="26"/>
+      <c r="E94" s="26"/>
+      <c r="F94" s="26"/>
+      <c r="G94" s="26"/>
+      <c r="H94" s="26"/>
+      <c r="I94" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="F71:G71"/>
@@ -5366,19 +5422,6 @@
     <mergeCell ref="E59:I59"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="C51:D51"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0" top="0.19685039370078741" bottom="0" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/templates/13.a-Lam BA Pembukaan 2 SAMPUL.xlsx
+++ b/templates/13.a-Lam BA Pembukaan 2 SAMPUL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="8670" windowHeight="4020"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="8670" windowHeight="4020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Lam Buka 1 Sampul (1)" sheetId="3" r:id="rId1"/>
@@ -246,7 +246,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="84">
   <si>
     <t>NO.</t>
   </si>
@@ -278,37 +278,10 @@
     <t>ISI BERKAS SAMPUL I</t>
   </si>
   <si>
-    <t>COPY AKTE PENDIRIAN PERUSAHAAN DAN PERUBAHANNYA JIKA ADA</t>
-  </si>
-  <si>
-    <t>SURAT IJIN JASA KONSTRUKSI DAN SBU SIPIL, MEKANIKAL DAN ELEKTRIKAL</t>
-  </si>
-  <si>
-    <t>SURAT KETERANGAN DOMISILI PERUSAHAAN YANG MASIH BERLAKU</t>
-  </si>
-  <si>
-    <t>COPY NPWP, PKP, SKT</t>
-  </si>
-  <si>
-    <t>PAJAK TAHUN TERKAHIR (SPT/PPh) PASAL 25 ATAU PASAL 21 / PASAL 23  3BLN TERAKHIR</t>
-  </si>
-  <si>
-    <t>ISIAN KUALIFIKASI PERUSAHAAN PAKAI METERAI RP. 6000</t>
-  </si>
-  <si>
-    <t>FAKTA INTEGRITAS PAKAI METERAI RP. 6000</t>
-  </si>
-  <si>
-    <t>KESEDIAAN MENGIKUTI LELANG DENGAN CARA E-BIDING PAKAI METERAI RP. 6000</t>
-  </si>
-  <si>
     <t>TENAGA AHLI YANG DITUGASKAN</t>
   </si>
   <si>
     <t>PT PLN (PERSERO) KANTOR PUSAT</t>
-  </si>
-  <si>
-    <t>PENGESAHAN KEMENHUM DAN HAM</t>
   </si>
   <si>
     <t>METODE KESELAMATAN KERJA</t>
@@ -2471,198 +2444,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="73" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="79" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="81" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="82" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="83" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="81" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="82" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="83" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="85" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="86" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="87" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="85" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="86" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="87" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="85" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="86" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="87" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="85" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="86" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="87" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="85" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="86" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="87" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="94" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="95" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="96" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="94" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="95" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="96" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="74" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="74" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="74" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2672,21 +2453,213 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="85" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="86" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="87" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="85" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="86" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="87" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="85" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="86" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="87" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="94" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="95" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="96" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="94" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="95" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="96" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="74" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="74" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="74" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="85" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="86" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="87" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="85" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="86" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="87" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="81" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="82" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="83" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="81" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="82" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="83" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="73" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="79" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3182,7 +3155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="H33" sqref="H33:L40"/>
     </sheetView>
   </sheetViews>
@@ -3195,110 +3168,110 @@
   <sheetData>
     <row r="2" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="J2" s="102" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="J3" s="102" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="103"/>
     </row>
     <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="125" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="125"/>
-      <c r="K5" s="125"/>
+      <c r="A5" s="170" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="170"/>
+      <c r="C5" s="170"/>
+      <c r="D5" s="170"/>
+      <c r="E5" s="170"/>
+      <c r="F5" s="170"/>
+      <c r="G5" s="170"/>
+      <c r="H5" s="170"/>
+      <c r="I5" s="170"/>
+      <c r="J5" s="170"/>
+      <c r="K5" s="170"/>
     </row>
     <row r="6" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="126" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="126"/>
+      <c r="A6" s="171" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="171"/>
+      <c r="C6" s="171"/>
+      <c r="D6" s="171"/>
+      <c r="E6" s="171"/>
+      <c r="F6" s="171"/>
+      <c r="G6" s="171"/>
+      <c r="H6" s="171"/>
+      <c r="I6" s="171"/>
+      <c r="J6" s="171"/>
+      <c r="K6" s="171"/>
     </row>
     <row r="7" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="127" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="127" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="128"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="127" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" s="129"/>
+      <c r="B7" s="172" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="173"/>
+      <c r="D7" s="173"/>
+      <c r="E7" s="174"/>
+      <c r="F7" s="172" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="173"/>
+      <c r="H7" s="174"/>
+      <c r="I7" s="172" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="174"/>
       <c r="K7" s="105" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="L7" s="106"/>
     </row>
     <row r="8" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="107"/>
-      <c r="B8" s="130" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="133" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="134"/>
-      <c r="H8" s="135"/>
-      <c r="I8" s="133" t="s">
+      <c r="B8" s="164" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="135"/>
+      <c r="C8" s="165"/>
+      <c r="D8" s="165"/>
+      <c r="E8" s="166"/>
+      <c r="F8" s="167" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="168"/>
+      <c r="H8" s="169"/>
+      <c r="I8" s="167" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="169"/>
       <c r="K8" s="108"/>
       <c r="L8" s="106"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="107" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="136" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="137"/>
-      <c r="D9" s="137"/>
-      <c r="E9" s="138"/>
-      <c r="F9" s="139" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="140"/>
-      <c r="H9" s="141"/>
-      <c r="I9" s="139" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="141"/>
+        <v>41</v>
+      </c>
+      <c r="B9" s="140" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="141"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="143" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="144"/>
+      <c r="H9" s="145"/>
+      <c r="I9" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="145"/>
       <c r="K9" s="108"/>
       <c r="L9" s="106"/>
     </row>
@@ -3306,121 +3279,121 @@
       <c r="A10" s="109">
         <v>1</v>
       </c>
-      <c r="B10" s="136" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="137"/>
-      <c r="D10" s="137"/>
-      <c r="E10" s="138"/>
-      <c r="F10" s="139" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="140"/>
-      <c r="H10" s="141"/>
-      <c r="I10" s="139" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="141"/>
+      <c r="B10" s="140" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="141"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="143" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="144"/>
+      <c r="H10" s="145"/>
+      <c r="I10" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="145"/>
       <c r="K10" s="108"/>
       <c r="L10" s="106"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="109"/>
-      <c r="B11" s="142" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="143"/>
-      <c r="D11" s="143"/>
-      <c r="E11" s="144"/>
-      <c r="F11" s="139" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="140"/>
-      <c r="H11" s="141"/>
-      <c r="I11" s="139" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="141"/>
+      <c r="B11" s="146" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="147"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="148"/>
+      <c r="F11" s="143" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="144"/>
+      <c r="H11" s="145"/>
+      <c r="I11" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="145"/>
       <c r="K11" s="108"/>
       <c r="L11" s="106"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="109"/>
-      <c r="B12" s="142" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="143"/>
-      <c r="D12" s="143"/>
-      <c r="E12" s="144"/>
-      <c r="F12" s="139" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="140"/>
-      <c r="H12" s="141"/>
-      <c r="I12" s="139" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="141"/>
+      <c r="B12" s="146" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="147"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="148"/>
+      <c r="F12" s="143" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="144"/>
+      <c r="H12" s="145"/>
+      <c r="I12" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="145"/>
       <c r="K12" s="108"/>
       <c r="L12" s="106"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="109"/>
-      <c r="B13" s="142" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="143"/>
-      <c r="D13" s="143"/>
-      <c r="E13" s="144"/>
-      <c r="F13" s="139" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="140"/>
-      <c r="H13" s="141"/>
-      <c r="I13" s="139" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="141"/>
+      <c r="B13" s="146" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="147"/>
+      <c r="D13" s="147"/>
+      <c r="E13" s="148"/>
+      <c r="F13" s="143" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="144"/>
+      <c r="H13" s="145"/>
+      <c r="I13" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="145"/>
       <c r="K13" s="108"/>
       <c r="L13" s="106"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="109"/>
-      <c r="B14" s="142" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="143"/>
-      <c r="D14" s="143"/>
-      <c r="E14" s="144"/>
-      <c r="F14" s="139" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="140"/>
-      <c r="H14" s="141"/>
-      <c r="I14" s="139" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14" s="141"/>
+      <c r="B14" s="146" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="147"/>
+      <c r="D14" s="147"/>
+      <c r="E14" s="148"/>
+      <c r="F14" s="143" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="144"/>
+      <c r="H14" s="145"/>
+      <c r="I14" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="145"/>
       <c r="K14" s="108"/>
       <c r="L14" s="106"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="109"/>
-      <c r="B15" s="142" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="143"/>
-      <c r="D15" s="143"/>
-      <c r="E15" s="144"/>
-      <c r="F15" s="139" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="140"/>
-      <c r="H15" s="141"/>
-      <c r="I15" s="139" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15" s="141"/>
+      <c r="B15" s="146" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="147"/>
+      <c r="D15" s="147"/>
+      <c r="E15" s="148"/>
+      <c r="F15" s="143" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="144"/>
+      <c r="H15" s="145"/>
+      <c r="I15" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="145"/>
       <c r="K15" s="108"/>
       <c r="L15" s="106"/>
     </row>
@@ -3428,21 +3401,21 @@
       <c r="A16" s="109">
         <v>2</v>
       </c>
-      <c r="B16" s="136" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="137"/>
-      <c r="D16" s="137"/>
-      <c r="E16" s="138"/>
-      <c r="F16" s="139" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="140"/>
-      <c r="H16" s="141"/>
-      <c r="I16" s="139" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16" s="141"/>
+      <c r="B16" s="140" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="141"/>
+      <c r="D16" s="141"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="143" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="144"/>
+      <c r="H16" s="145"/>
+      <c r="I16" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="145"/>
       <c r="K16" s="108"/>
       <c r="L16" s="106"/>
     </row>
@@ -3450,21 +3423,21 @@
       <c r="A17" s="110">
         <v>3</v>
       </c>
-      <c r="B17" s="145" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="146"/>
-      <c r="D17" s="146"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="148" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" s="149"/>
-      <c r="H17" s="150"/>
-      <c r="I17" s="148" t="s">
-        <v>38</v>
-      </c>
-      <c r="J17" s="150"/>
+      <c r="B17" s="158" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="159"/>
+      <c r="D17" s="159"/>
+      <c r="E17" s="160"/>
+      <c r="F17" s="161" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="162"/>
+      <c r="H17" s="163"/>
+      <c r="I17" s="161" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="163"/>
       <c r="K17" s="111"/>
       <c r="L17" s="106"/>
     </row>
@@ -3472,21 +3445,21 @@
       <c r="A18" s="109">
         <v>4</v>
       </c>
-      <c r="B18" s="136" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="137"/>
-      <c r="D18" s="137"/>
-      <c r="E18" s="138"/>
-      <c r="F18" s="139" t="s">
+      <c r="B18" s="140" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="140"/>
-      <c r="H18" s="141"/>
-      <c r="I18" s="139" t="s">
-        <v>38</v>
-      </c>
-      <c r="J18" s="141"/>
+      <c r="C18" s="141"/>
+      <c r="D18" s="141"/>
+      <c r="E18" s="142"/>
+      <c r="F18" s="143" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="144"/>
+      <c r="H18" s="145"/>
+      <c r="I18" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="145"/>
       <c r="K18" s="108"/>
       <c r="L18" s="106"/>
     </row>
@@ -3494,21 +3467,21 @@
       <c r="A19" s="109">
         <v>5</v>
       </c>
-      <c r="B19" s="136" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="137"/>
-      <c r="D19" s="137"/>
-      <c r="E19" s="138"/>
-      <c r="F19" s="139" t="s">
-        <v>52</v>
-      </c>
-      <c r="G19" s="140"/>
-      <c r="H19" s="141"/>
-      <c r="I19" s="139" t="s">
-        <v>38</v>
-      </c>
-      <c r="J19" s="141"/>
+      <c r="B19" s="140" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="141"/>
+      <c r="D19" s="141"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="143" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="144"/>
+      <c r="H19" s="145"/>
+      <c r="I19" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="145"/>
       <c r="K19" s="108"/>
       <c r="L19" s="106"/>
     </row>
@@ -3516,43 +3489,43 @@
       <c r="A20" s="109">
         <v>6</v>
       </c>
-      <c r="B20" s="136" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="137"/>
-      <c r="D20" s="137"/>
-      <c r="E20" s="138"/>
-      <c r="F20" s="139" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="140"/>
-      <c r="H20" s="141"/>
-      <c r="I20" s="139" t="s">
-        <v>38</v>
-      </c>
-      <c r="J20" s="141"/>
+      <c r="B20" s="140" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="141"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="142"/>
+      <c r="F20" s="143" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="144"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="145"/>
       <c r="K20" s="108"/>
       <c r="L20" s="106"/>
     </row>
     <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="107" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="136" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="137"/>
-      <c r="D21" s="137"/>
-      <c r="E21" s="138"/>
-      <c r="F21" s="139" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="140"/>
-      <c r="H21" s="141"/>
-      <c r="I21" s="139" t="s">
-        <v>38</v>
-      </c>
-      <c r="J21" s="141"/>
+        <v>55</v>
+      </c>
+      <c r="B21" s="140" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="141"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="142"/>
+      <c r="F21" s="143" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="144"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="145"/>
       <c r="K21" s="108"/>
       <c r="L21" s="106"/>
     </row>
@@ -3560,21 +3533,21 @@
       <c r="A22" s="109">
         <v>1</v>
       </c>
-      <c r="B22" s="136" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="137"/>
-      <c r="D22" s="137"/>
-      <c r="E22" s="138"/>
-      <c r="F22" s="139" t="s">
-        <v>52</v>
-      </c>
-      <c r="G22" s="140"/>
-      <c r="H22" s="141"/>
-      <c r="I22" s="139" t="s">
-        <v>38</v>
-      </c>
-      <c r="J22" s="141"/>
+      <c r="B22" s="140" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="141"/>
+      <c r="D22" s="141"/>
+      <c r="E22" s="142"/>
+      <c r="F22" s="143" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="144"/>
+      <c r="H22" s="145"/>
+      <c r="I22" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" s="145"/>
       <c r="K22" s="108"/>
       <c r="L22" s="106"/>
     </row>
@@ -3582,21 +3555,21 @@
       <c r="A23" s="109">
         <v>2</v>
       </c>
-      <c r="B23" s="136" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="137"/>
-      <c r="D23" s="137"/>
-      <c r="E23" s="138"/>
-      <c r="F23" s="139" t="s">
-        <v>52</v>
-      </c>
-      <c r="G23" s="140"/>
-      <c r="H23" s="141"/>
-      <c r="I23" s="139" t="s">
-        <v>38</v>
-      </c>
-      <c r="J23" s="141"/>
+      <c r="B23" s="140" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="141"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="143" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="144"/>
+      <c r="H23" s="145"/>
+      <c r="I23" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="145"/>
       <c r="K23" s="108"/>
       <c r="L23" s="106"/>
     </row>
@@ -3604,21 +3577,21 @@
       <c r="A24" s="109">
         <v>3</v>
       </c>
-      <c r="B24" s="136" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="137"/>
-      <c r="D24" s="137"/>
-      <c r="E24" s="138"/>
-      <c r="F24" s="139" t="s">
-        <v>52</v>
-      </c>
-      <c r="G24" s="140"/>
-      <c r="H24" s="141"/>
-      <c r="I24" s="139" t="s">
-        <v>38</v>
-      </c>
-      <c r="J24" s="141"/>
+      <c r="B24" s="140" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="141"/>
+      <c r="D24" s="141"/>
+      <c r="E24" s="142"/>
+      <c r="F24" s="143" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="144"/>
+      <c r="H24" s="145"/>
+      <c r="I24" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" s="145"/>
       <c r="K24" s="108"/>
       <c r="L24" s="106"/>
     </row>
@@ -3626,21 +3599,21 @@
       <c r="A25" s="109">
         <v>4</v>
       </c>
-      <c r="B25" s="136" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="137"/>
-      <c r="D25" s="137"/>
-      <c r="E25" s="138"/>
-      <c r="F25" s="139" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25" s="140"/>
-      <c r="H25" s="141"/>
-      <c r="I25" s="139" t="s">
-        <v>38</v>
-      </c>
-      <c r="J25" s="141"/>
+      <c r="B25" s="140" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="141"/>
+      <c r="D25" s="141"/>
+      <c r="E25" s="142"/>
+      <c r="F25" s="143" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="144"/>
+      <c r="H25" s="145"/>
+      <c r="I25" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" s="145"/>
       <c r="K25" s="108"/>
       <c r="L25" s="106"/>
     </row>
@@ -3648,49 +3621,49 @@
       <c r="A26" s="109">
         <v>5</v>
       </c>
-      <c r="B26" s="136" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="137"/>
-      <c r="D26" s="137"/>
-      <c r="E26" s="138"/>
-      <c r="F26" s="139" t="s">
-        <v>52</v>
-      </c>
-      <c r="G26" s="140"/>
-      <c r="H26" s="141"/>
-      <c r="I26" s="139" t="s">
-        <v>38</v>
-      </c>
-      <c r="J26" s="141"/>
+      <c r="B26" s="140" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="141"/>
+      <c r="D26" s="141"/>
+      <c r="E26" s="142"/>
+      <c r="F26" s="143" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" s="144"/>
+      <c r="H26" s="145"/>
+      <c r="I26" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" s="145"/>
       <c r="K26" s="108"/>
       <c r="L26" s="106"/>
     </row>
     <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="107"/>
-      <c r="B27" s="136"/>
-      <c r="C27" s="137"/>
-      <c r="D27" s="137"/>
-      <c r="E27" s="138"/>
-      <c r="F27" s="139"/>
-      <c r="G27" s="140"/>
-      <c r="H27" s="141"/>
-      <c r="I27" s="139"/>
-      <c r="J27" s="141"/>
+      <c r="B27" s="140"/>
+      <c r="C27" s="141"/>
+      <c r="D27" s="141"/>
+      <c r="E27" s="142"/>
+      <c r="F27" s="143"/>
+      <c r="G27" s="144"/>
+      <c r="H27" s="145"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="145"/>
       <c r="K27" s="108"/>
       <c r="L27" s="106"/>
     </row>
     <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="107"/>
-      <c r="B28" s="142"/>
-      <c r="C28" s="143"/>
-      <c r="D28" s="143"/>
-      <c r="E28" s="144"/>
-      <c r="F28" s="139"/>
-      <c r="G28" s="140"/>
-      <c r="H28" s="141"/>
-      <c r="I28" s="139"/>
-      <c r="J28" s="141"/>
+      <c r="B28" s="146"/>
+      <c r="C28" s="147"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="143"/>
+      <c r="G28" s="144"/>
+      <c r="H28" s="145"/>
+      <c r="I28" s="143"/>
+      <c r="J28" s="145"/>
       <c r="K28" s="108"/>
       <c r="L28" s="106"/>
     </row>
@@ -3710,157 +3683,157 @@
     </row>
     <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="120"/>
-      <c r="B30" s="152" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="153"/>
-      <c r="D30" s="153"/>
-      <c r="E30" s="154"/>
-      <c r="F30" s="155" t="s">
-        <v>72</v>
-      </c>
-      <c r="G30" s="156"/>
-      <c r="H30" s="157"/>
-      <c r="I30" s="155" t="s">
-        <v>41</v>
-      </c>
-      <c r="J30" s="157"/>
+      <c r="B30" s="149" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="150"/>
+      <c r="D30" s="150"/>
+      <c r="E30" s="151"/>
+      <c r="F30" s="152" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" s="153"/>
+      <c r="H30" s="154"/>
+      <c r="I30" s="152" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" s="154"/>
       <c r="K30" s="121"/>
       <c r="L30" s="106"/>
     </row>
     <row r="31" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="158" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="158"/>
-      <c r="D31" s="159"/>
-      <c r="E31" s="161"/>
-      <c r="F31" s="161"/>
-      <c r="G31" s="151" t="s">
-        <v>90</v>
-      </c>
-      <c r="H31" s="151"/>
-      <c r="I31" s="151"/>
-      <c r="J31" s="151"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="151"/>
+      <c r="A31" s="155" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="155"/>
+      <c r="D31" s="156"/>
+      <c r="E31" s="157"/>
+      <c r="F31" s="157"/>
+      <c r="G31" s="139" t="s">
+        <v>81</v>
+      </c>
+      <c r="H31" s="139"/>
+      <c r="I31" s="139"/>
+      <c r="J31" s="139"/>
+      <c r="K31" s="139"/>
+      <c r="L31" s="139"/>
     </row>
     <row r="32" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="162" t="s">
-        <v>73</v>
-      </c>
-      <c r="B32" s="162"/>
-      <c r="D32" s="160"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151" t="s">
-        <v>74</v>
-      </c>
-      <c r="H32" s="151"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="151"/>
-      <c r="K32" s="151"/>
-      <c r="L32" s="151"/>
+      <c r="A32" s="135" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="135"/>
+      <c r="D32" s="134"/>
+      <c r="E32" s="139"/>
+      <c r="F32" s="139"/>
+      <c r="G32" s="139" t="s">
+        <v>65</v>
+      </c>
+      <c r="H32" s="139"/>
+      <c r="I32" s="139"/>
+      <c r="J32" s="139"/>
+      <c r="K32" s="139"/>
+      <c r="L32" s="139"/>
     </row>
     <row r="33" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="162" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33" s="162"/>
+      <c r="A33" s="135" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="135"/>
       <c r="D33" s="123"/>
       <c r="F33" s="123"/>
       <c r="G33" s="123"/>
-      <c r="H33" s="197" t="s">
-        <v>76</v>
-      </c>
-      <c r="I33" s="197"/>
-      <c r="J33" s="198" t="s">
-        <v>77</v>
-      </c>
-      <c r="K33" s="198"/>
-      <c r="L33" s="198"/>
+      <c r="H33" s="132" t="s">
+        <v>67</v>
+      </c>
+      <c r="I33" s="132"/>
+      <c r="J33" s="136" t="s">
+        <v>68</v>
+      </c>
+      <c r="K33" s="136"/>
+      <c r="L33" s="136"/>
     </row>
     <row r="34" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="162" t="s">
-        <v>78</v>
-      </c>
-      <c r="B34" s="162"/>
+      <c r="A34" s="135" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="135"/>
       <c r="D34" s="123"/>
       <c r="F34" s="123"/>
       <c r="G34" s="123"/>
-      <c r="H34" s="197"/>
-      <c r="I34" s="197"/>
-      <c r="J34" s="198"/>
-      <c r="K34" s="198"/>
-      <c r="L34" s="198"/>
+      <c r="H34" s="132"/>
+      <c r="I34" s="132"/>
+      <c r="J34" s="136"/>
+      <c r="K34" s="136"/>
+      <c r="L34" s="136"/>
     </row>
     <row r="35" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="163"/>
-      <c r="B35" s="163"/>
-      <c r="D35" s="164" t="s">
-        <v>79</v>
-      </c>
-      <c r="E35" s="164"/>
+      <c r="A35" s="137"/>
+      <c r="B35" s="137"/>
+      <c r="D35" s="138" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="138"/>
       <c r="F35" s="123"/>
       <c r="G35" s="123"/>
-      <c r="H35" s="197"/>
-      <c r="I35" s="197"/>
-      <c r="J35" s="198"/>
-      <c r="K35" s="198"/>
-      <c r="L35" s="198"/>
+      <c r="H35" s="132"/>
+      <c r="I35" s="132"/>
+      <c r="J35" s="136"/>
+      <c r="K35" s="136"/>
+      <c r="L35" s="136"/>
     </row>
     <row r="36" spans="1:12" ht="13.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="163"/>
-      <c r="B36" s="163"/>
+      <c r="A36" s="137"/>
+      <c r="B36" s="137"/>
       <c r="D36" s="123"/>
       <c r="F36" s="123"/>
       <c r="G36" s="123"/>
-      <c r="H36" s="197"/>
-      <c r="I36" s="197"/>
-      <c r="J36" s="198"/>
-      <c r="K36" s="198"/>
-      <c r="L36" s="198"/>
+      <c r="H36" s="132"/>
+      <c r="I36" s="132"/>
+      <c r="J36" s="136"/>
+      <c r="K36" s="136"/>
+      <c r="L36" s="136"/>
     </row>
     <row r="37" spans="1:12" ht="13.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="163"/>
-      <c r="B37" s="163"/>
+      <c r="A37" s="137"/>
+      <c r="B37" s="137"/>
       <c r="D37" s="122"/>
       <c r="F37" s="123"/>
       <c r="G37" s="123"/>
-      <c r="H37" s="197"/>
-      <c r="I37" s="197"/>
-      <c r="J37" s="198"/>
-      <c r="K37" s="198"/>
-      <c r="L37" s="198"/>
+      <c r="H37" s="132"/>
+      <c r="I37" s="132"/>
+      <c r="J37" s="136"/>
+      <c r="K37" s="136"/>
+      <c r="L37" s="136"/>
     </row>
     <row r="38" spans="1:12" ht="13.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="163"/>
-      <c r="B38" s="163"/>
+      <c r="A38" s="137"/>
+      <c r="B38" s="137"/>
       <c r="D38" s="124"/>
       <c r="F38" s="123"/>
       <c r="G38" s="123"/>
-      <c r="H38" s="197"/>
-      <c r="I38" s="197"/>
-      <c r="J38" s="198"/>
-      <c r="K38" s="198"/>
-      <c r="L38" s="198"/>
+      <c r="H38" s="132"/>
+      <c r="I38" s="132"/>
+      <c r="J38" s="136"/>
+      <c r="K38" s="136"/>
+      <c r="L38" s="136"/>
     </row>
     <row r="39" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="124"/>
       <c r="D39" s="122" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F39" s="123"/>
       <c r="G39" s="123"/>
-      <c r="H39" s="197" t="s">
-        <v>81</v>
-      </c>
-      <c r="I39" s="199"/>
-      <c r="J39" s="198" t="s">
-        <v>77</v>
-      </c>
-      <c r="K39" s="198"/>
-      <c r="L39" s="198"/>
+      <c r="H39" s="132" t="s">
+        <v>72</v>
+      </c>
+      <c r="I39" s="133"/>
+      <c r="J39" s="136" t="s">
+        <v>68</v>
+      </c>
+      <c r="K39" s="136"/>
+      <c r="L39" s="136"/>
     </row>
     <row r="40" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="124"/>
@@ -3870,15 +3843,15 @@
       <c r="D40" s="124"/>
       <c r="F40" s="123"/>
       <c r="G40" s="123"/>
-      <c r="H40" s="197" t="s">
-        <v>82</v>
-      </c>
-      <c r="I40" s="199"/>
-      <c r="J40" s="198" t="s">
-        <v>83</v>
-      </c>
-      <c r="K40" s="198"/>
-      <c r="L40" s="198"/>
+      <c r="H40" s="132" t="s">
+        <v>73</v>
+      </c>
+      <c r="I40" s="133"/>
+      <c r="J40" s="136" t="s">
+        <v>74</v>
+      </c>
+      <c r="K40" s="136"/>
+      <c r="L40" s="136"/>
     </row>
     <row r="41" spans="1:12" ht="13.5" x14ac:dyDescent="0.2">
       <c r="D41" s="122"/>
@@ -3887,10 +3860,10 @@
       <c r="D42" s="124"/>
     </row>
     <row r="43" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D43" s="160" t="s">
-        <v>84</v>
-      </c>
-      <c r="E43" s="160"/>
+      <c r="D43" s="134" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" s="134"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C44" s="101">
@@ -3898,30 +3871,75 @@
       </c>
     </row>
     <row r="47" spans="1:12" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="D47" s="160" t="s">
-        <v>85</v>
-      </c>
-      <c r="E47" s="160"/>
+      <c r="D47" s="134" t="s">
+        <v>76</v>
+      </c>
+      <c r="E47" s="134"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="J33:L38"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="G31:L31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:J25"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="F26:H26"/>
     <mergeCell ref="I26:J26"/>
@@ -3938,65 +3956,20 @@
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="E31:F32"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="J33:L38"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4007,8 +3980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D57" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="M68" sqref="M68"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4036,43 +4009,43 @@
       <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="180" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="A2" s="175" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="175"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="175"/>
+      <c r="I2" s="175"/>
     </row>
     <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="181" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="181"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
+      <c r="A3" s="176" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="176"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="176"/>
+      <c r="H3" s="176"/>
+      <c r="I3" s="176"/>
     </row>
     <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="181" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="A4" s="176" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="176"/>
+      <c r="C4" s="176"/>
+      <c r="D4" s="176"/>
+      <c r="E4" s="176"/>
+      <c r="F4" s="176"/>
+      <c r="G4" s="176"/>
+      <c r="H4" s="176"/>
+      <c r="I4" s="176"/>
     </row>
     <row r="5" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -4085,37 +4058,37 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" ht="21" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="185" t="s">
+      <c r="A6" s="180" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="35"/>
-      <c r="C6" s="187" t="s">
+      <c r="C6" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="182" t="s">
+      <c r="D6" s="177" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="183"/>
-      <c r="F6" s="183"/>
-      <c r="G6" s="183"/>
-      <c r="H6" s="183"/>
-      <c r="I6" s="184"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="179"/>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="186"/>
+      <c r="A7" s="181"/>
       <c r="B7" s="36"/>
-      <c r="C7" s="188"/>
+      <c r="C7" s="183"/>
       <c r="D7" s="81" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E7" s="82" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F7" s="82" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G7" s="82" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H7" s="82"/>
       <c r="I7" s="83"/>
@@ -4153,7 +4126,7 @@
       </c>
       <c r="B9" s="52"/>
       <c r="C9" s="61" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D9" s="30"/>
       <c r="E9" s="31"/>
@@ -4174,16 +4147,16 @@
       <c r="I10" s="71"/>
     </row>
     <row r="11" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="175" t="s">
+      <c r="A11" s="188" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="176"/>
-      <c r="C11" s="177"/>
+      <c r="B11" s="189"/>
+      <c r="C11" s="190"/>
       <c r="D11" s="11" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>2</v>
@@ -4213,13 +4186,11 @@
       <c r="A13" s="43">
         <v>1</v>
       </c>
-      <c r="B13" s="165" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="166"/>
+      <c r="B13" s="191"/>
+      <c r="C13" s="192"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
@@ -4230,9 +4201,7 @@
       <c r="A14" s="43">
         <v>2</v>
       </c>
-      <c r="B14" s="57" t="s">
-        <v>20</v>
-      </c>
+      <c r="B14" s="57"/>
       <c r="C14" s="49"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -4245,10 +4214,8 @@
       <c r="A15" s="43">
         <v>3</v>
       </c>
-      <c r="B15" s="165" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="166"/>
+      <c r="B15" s="191"/>
+      <c r="C15" s="192"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -4260,10 +4227,8 @@
       <c r="A16" s="43">
         <v>4</v>
       </c>
-      <c r="B16" s="165" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="166"/>
+      <c r="B16" s="191"/>
+      <c r="C16" s="192"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
@@ -4275,10 +4240,8 @@
       <c r="A17" s="48">
         <v>5</v>
       </c>
-      <c r="B17" s="178" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="179"/>
+      <c r="B17" s="193"/>
+      <c r="C17" s="194"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -4290,10 +4253,8 @@
       <c r="A18" s="43">
         <v>6</v>
       </c>
-      <c r="B18" s="171" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="172"/>
+      <c r="B18" s="184"/>
+      <c r="C18" s="185"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
@@ -4305,10 +4266,8 @@
       <c r="A19" s="43">
         <v>7</v>
       </c>
-      <c r="B19" s="173" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="174"/>
+      <c r="B19" s="186"/>
+      <c r="C19" s="187"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
@@ -4320,10 +4279,8 @@
       <c r="A20" s="43">
         <v>8</v>
       </c>
-      <c r="B20" s="165" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="166"/>
+      <c r="B20" s="191"/>
+      <c r="C20" s="192"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
@@ -4335,10 +4292,8 @@
       <c r="A21" s="43">
         <v>9</v>
       </c>
-      <c r="B21" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="166"/>
+      <c r="B21" s="191"/>
+      <c r="C21" s="192"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
@@ -4350,9 +4305,7 @@
       <c r="A22" s="43">
         <v>10</v>
       </c>
-      <c r="B22" s="57" t="s">
-        <v>42</v>
-      </c>
+      <c r="B22" s="57"/>
       <c r="C22" s="49"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
@@ -4494,17 +4447,17 @@
       <c r="A32" s="22"/>
       <c r="B32" s="95"/>
       <c r="C32" s="80" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D32" s="96"/>
       <c r="E32" s="96" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F32" s="96" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G32" s="96" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H32" s="96"/>
       <c r="I32" s="97"/>
@@ -4532,7 +4485,7 @@
       </c>
       <c r="B34" s="45"/>
       <c r="C34" s="60" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D34" s="41"/>
       <c r="E34" s="41"/>
@@ -4562,11 +4515,11 @@
       </c>
       <c r="B36" s="47"/>
       <c r="C36" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
@@ -4579,7 +4532,7 @@
       </c>
       <c r="B37" s="47"/>
       <c r="C37" s="16" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
@@ -4594,7 +4547,7 @@
       </c>
       <c r="B38" s="47"/>
       <c r="C38" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="13"/>
@@ -4609,11 +4562,11 @@
       </c>
       <c r="B39" s="44"/>
       <c r="C39" s="16" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="13" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
@@ -4626,7 +4579,7 @@
       </c>
       <c r="B40" s="44"/>
       <c r="C40" s="16" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
@@ -4641,7 +4594,7 @@
       </c>
       <c r="B41" s="44"/>
       <c r="C41" s="16" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
@@ -4656,7 +4609,7 @@
       </c>
       <c r="B42" s="44"/>
       <c r="C42" s="16" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
@@ -4671,7 +4624,7 @@
       </c>
       <c r="B43" s="44"/>
       <c r="C43" s="16" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
@@ -4725,14 +4678,14 @@
       <c r="A47" s="66"/>
       <c r="B47" s="67"/>
       <c r="C47" s="80" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D47" s="68"/>
       <c r="E47" s="68" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F47" s="68" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G47" s="68"/>
       <c r="H47" s="68"/>
@@ -4753,7 +4706,7 @@
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="85" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D49" s="86"/>
       <c r="E49" s="15"/>
@@ -4765,10 +4718,10 @@
     <row r="50" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
-      <c r="C50" s="169" t="s">
-        <v>37</v>
-      </c>
-      <c r="D50" s="170"/>
+      <c r="C50" s="198" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" s="199"/>
       <c r="E50" s="15"/>
       <c r="F50" s="15"/>
       <c r="G50" s="15"/>
@@ -4778,10 +4731,10 @@
     <row r="51" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
-      <c r="C51" s="169" t="s">
-        <v>32</v>
-      </c>
-      <c r="D51" s="170"/>
+      <c r="C51" s="198" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" s="199"/>
       <c r="E51" s="15"/>
       <c r="F51" s="15"/>
       <c r="G51" s="15"/>
@@ -4792,7 +4745,7 @@
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="87" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D52" s="88"/>
       <c r="E52" s="15"/>
@@ -4839,13 +4792,13 @@
       <c r="B56" s="5"/>
       <c r="C56" s="84"/>
       <c r="D56" s="15"/>
-      <c r="E56" s="167" t="s">
-        <v>89</v>
-      </c>
-      <c r="F56" s="167"/>
-      <c r="G56" s="167"/>
-      <c r="H56" s="167"/>
-      <c r="I56" s="167"/>
+      <c r="E56" s="196" t="s">
+        <v>80</v>
+      </c>
+      <c r="F56" s="196"/>
+      <c r="G56" s="196"/>
+      <c r="H56" s="196"/>
+      <c r="I56" s="196"/>
     </row>
     <row r="57" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="5"/>
@@ -4863,26 +4816,26 @@
       <c r="B58" s="5"/>
       <c r="C58" s="9"/>
       <c r="D58" s="6"/>
-      <c r="E58" s="168" t="s">
-        <v>92</v>
-      </c>
-      <c r="F58" s="168"/>
-      <c r="G58" s="168"/>
-      <c r="H58" s="168"/>
-      <c r="I58" s="168"/>
+      <c r="E58" s="197" t="s">
+        <v>83</v>
+      </c>
+      <c r="F58" s="197"/>
+      <c r="G58" s="197"/>
+      <c r="H58" s="197"/>
+      <c r="I58" s="197"/>
     </row>
     <row r="59" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="9"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="168" t="s">
+      <c r="E59" s="197" t="s">
         <v>7</v>
       </c>
-      <c r="F59" s="168"/>
-      <c r="G59" s="168"/>
-      <c r="H59" s="168"/>
-      <c r="I59" s="168"/>
+      <c r="F59" s="197"/>
+      <c r="G59" s="197"/>
+      <c r="H59" s="197"/>
+      <c r="I59" s="197"/>
     </row>
     <row r="60" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
@@ -4928,34 +4881,34 @@
       <c r="D63" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E63" s="189">
+      <c r="E63" s="125">
         <v>1</v>
       </c>
-      <c r="F63" s="190"/>
-      <c r="G63" s="190" t="s">
-        <v>2</v>
-      </c>
-      <c r="H63" s="190" t="s">
+      <c r="F63" s="126"/>
+      <c r="G63" s="126" t="s">
+        <v>2</v>
+      </c>
+      <c r="H63" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="I63" s="191"/>
-      <c r="J63" s="192"/>
-      <c r="K63" s="192"/>
+      <c r="I63" s="127"/>
+      <c r="J63" s="128"/>
+      <c r="K63" s="128"/>
     </row>
     <row r="64" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="23"/>
       <c r="B64" s="23"/>
       <c r="C64" s="24"/>
       <c r="D64" s="25"/>
-      <c r="E64" s="189"/>
-      <c r="F64" s="190"/>
-      <c r="G64" s="190" t="s">
-        <v>2</v>
-      </c>
-      <c r="H64" s="190"/>
-      <c r="I64" s="191"/>
-      <c r="J64" s="192"/>
-      <c r="K64" s="192"/>
+      <c r="E64" s="125"/>
+      <c r="F64" s="126"/>
+      <c r="G64" s="126" t="s">
+        <v>2</v>
+      </c>
+      <c r="H64" s="126"/>
+      <c r="I64" s="127"/>
+      <c r="J64" s="128"/>
+      <c r="K64" s="128"/>
     </row>
     <row r="65" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A65" s="23" t="s">
@@ -4968,30 +4921,30 @@
       <c r="D65" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E65" s="189">
-        <v>2</v>
-      </c>
-      <c r="F65" s="190"/>
-      <c r="G65" s="190"/>
-      <c r="H65" s="190"/>
-      <c r="I65" s="191" t="s">
+      <c r="E65" s="125">
+        <v>2</v>
+      </c>
+      <c r="F65" s="126"/>
+      <c r="G65" s="126"/>
+      <c r="H65" s="126"/>
+      <c r="I65" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="J65" s="192"/>
-      <c r="K65" s="192"/>
+      <c r="J65" s="128"/>
+      <c r="K65" s="128"/>
     </row>
     <row r="66" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A66" s="23"/>
       <c r="B66" s="23"/>
       <c r="C66" s="24"/>
       <c r="D66" s="25"/>
-      <c r="E66" s="189"/>
-      <c r="F66" s="190"/>
-      <c r="G66" s="190"/>
-      <c r="H66" s="190"/>
-      <c r="I66" s="191"/>
-      <c r="J66" s="192"/>
-      <c r="K66" s="192"/>
+      <c r="E66" s="125"/>
+      <c r="F66" s="126"/>
+      <c r="G66" s="126"/>
+      <c r="H66" s="126"/>
+      <c r="I66" s="127"/>
+      <c r="J66" s="128"/>
+      <c r="K66" s="128"/>
     </row>
     <row r="67" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A67" s="27" t="s">
@@ -5004,30 +4957,30 @@
       <c r="D67" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E67" s="193">
+      <c r="E67" s="129">
         <v>3</v>
       </c>
-      <c r="F67" s="194"/>
-      <c r="G67" s="194"/>
-      <c r="H67" s="195" t="s">
+      <c r="F67" s="195"/>
+      <c r="G67" s="195"/>
+      <c r="H67" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="I67" s="195"/>
-      <c r="J67" s="192"/>
-      <c r="K67" s="192"/>
+      <c r="I67" s="130"/>
+      <c r="J67" s="128"/>
+      <c r="K67" s="128"/>
     </row>
     <row r="68" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A68" s="27"/>
       <c r="B68" s="27"/>
       <c r="C68" s="26"/>
       <c r="D68" s="26"/>
-      <c r="E68" s="193"/>
-      <c r="F68" s="195"/>
-      <c r="G68" s="195"/>
-      <c r="H68" s="195"/>
-      <c r="I68" s="195"/>
-      <c r="J68" s="192"/>
-      <c r="K68" s="192"/>
+      <c r="E68" s="129"/>
+      <c r="F68" s="130"/>
+      <c r="G68" s="130"/>
+      <c r="H68" s="130"/>
+      <c r="I68" s="130"/>
+      <c r="J68" s="128"/>
+      <c r="K68" s="128"/>
     </row>
     <row r="69" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A69" s="27" t="s">
@@ -5040,34 +4993,34 @@
       <c r="D69" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E69" s="193">
+      <c r="E69" s="129">
         <v>4</v>
       </c>
-      <c r="F69" s="195"/>
-      <c r="G69" s="195"/>
-      <c r="H69" s="195"/>
-      <c r="I69" s="195" t="s">
+      <c r="F69" s="130"/>
+      <c r="G69" s="130"/>
+      <c r="H69" s="130"/>
+      <c r="I69" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="J69" s="192"/>
-      <c r="K69" s="192"/>
+      <c r="J69" s="128"/>
+      <c r="K69" s="128"/>
     </row>
     <row r="70" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A70" s="27"/>
       <c r="B70" s="27"/>
       <c r="C70" s="26"/>
       <c r="D70" s="26"/>
-      <c r="E70" s="193"/>
-      <c r="F70" s="195"/>
-      <c r="G70" s="195"/>
-      <c r="H70" s="195" t="s">
-        <v>2</v>
-      </c>
-      <c r="I70" s="195" t="s">
-        <v>2</v>
-      </c>
-      <c r="J70" s="192"/>
-      <c r="K70" s="192"/>
+      <c r="E70" s="129"/>
+      <c r="F70" s="130"/>
+      <c r="G70" s="130"/>
+      <c r="H70" s="130" t="s">
+        <v>2</v>
+      </c>
+      <c r="I70" s="130" t="s">
+        <v>2</v>
+      </c>
+      <c r="J70" s="128"/>
+      <c r="K70" s="128"/>
     </row>
     <row r="71" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A71" s="27" t="s">
@@ -5080,17 +5033,17 @@
       <c r="D71" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E71" s="193">
+      <c r="E71" s="129">
         <v>5</v>
       </c>
-      <c r="F71" s="194"/>
-      <c r="G71" s="194"/>
-      <c r="H71" s="195" t="s">
+      <c r="F71" s="195"/>
+      <c r="G71" s="195"/>
+      <c r="H71" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="I71" s="195"/>
-      <c r="J71" s="192"/>
-      <c r="K71" s="192"/>
+      <c r="I71" s="130"/>
+      <c r="J71" s="128"/>
+      <c r="K71" s="128"/>
     </row>
     <row r="72" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A72" s="27" t="s">
@@ -5099,17 +5052,17 @@
       <c r="B72" s="27"/>
       <c r="C72" s="26"/>
       <c r="D72" s="26"/>
-      <c r="E72" s="196"/>
-      <c r="F72" s="195"/>
-      <c r="G72" s="195"/>
-      <c r="H72" s="195" t="s">
-        <v>2</v>
-      </c>
-      <c r="I72" s="195" t="s">
-        <v>2</v>
-      </c>
-      <c r="J72" s="192"/>
-      <c r="K72" s="192"/>
+      <c r="E72" s="131"/>
+      <c r="F72" s="130"/>
+      <c r="G72" s="130"/>
+      <c r="H72" s="130" t="s">
+        <v>2</v>
+      </c>
+      <c r="I72" s="130" t="s">
+        <v>2</v>
+      </c>
+      <c r="J72" s="128"/>
+      <c r="K72" s="128"/>
     </row>
     <row r="73" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A73" s="27" t="s">
@@ -5122,17 +5075,17 @@
       <c r="D73" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E73" s="193">
+      <c r="E73" s="129">
         <v>6</v>
       </c>
-      <c r="F73" s="195"/>
-      <c r="G73" s="195"/>
-      <c r="H73" s="195"/>
-      <c r="I73" s="195" t="s">
+      <c r="F73" s="130"/>
+      <c r="G73" s="130"/>
+      <c r="H73" s="130"/>
+      <c r="I73" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="J73" s="192"/>
-      <c r="K73" s="192"/>
+      <c r="J73" s="128"/>
+      <c r="K73" s="128"/>
     </row>
     <row r="74" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A74" s="27"/>
@@ -5141,19 +5094,19 @@
       <c r="D74" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E74" s="193" t="s">
-        <v>2</v>
-      </c>
-      <c r="F74" s="195"/>
-      <c r="G74" s="195"/>
-      <c r="H74" s="195" t="s">
-        <v>2</v>
-      </c>
-      <c r="I74" s="195" t="s">
-        <v>2</v>
-      </c>
-      <c r="J74" s="192"/>
-      <c r="K74" s="192"/>
+      <c r="E74" s="129" t="s">
+        <v>2</v>
+      </c>
+      <c r="F74" s="130"/>
+      <c r="G74" s="130"/>
+      <c r="H74" s="130" t="s">
+        <v>2</v>
+      </c>
+      <c r="I74" s="130" t="s">
+        <v>2</v>
+      </c>
+      <c r="J74" s="128"/>
+      <c r="K74" s="128"/>
     </row>
     <row r="75" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A75" s="27" t="s">
@@ -5166,17 +5119,17 @@
       <c r="D75" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E75" s="193">
+      <c r="E75" s="129">
         <v>7</v>
       </c>
-      <c r="F75" s="194"/>
-      <c r="G75" s="194"/>
-      <c r="H75" s="195" t="s">
+      <c r="F75" s="195"/>
+      <c r="G75" s="195"/>
+      <c r="H75" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="I75" s="195"/>
-      <c r="J75" s="192"/>
-      <c r="K75" s="192"/>
+      <c r="I75" s="130"/>
+      <c r="J75" s="128"/>
+      <c r="K75" s="128"/>
     </row>
     <row r="76" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A76" s="27"/>
@@ -5185,13 +5138,13 @@
       <c r="D76" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E76" s="195"/>
-      <c r="F76" s="193"/>
-      <c r="G76" s="195"/>
-      <c r="H76" s="195"/>
-      <c r="I76" s="195"/>
-      <c r="J76" s="192"/>
-      <c r="K76" s="192"/>
+      <c r="E76" s="130"/>
+      <c r="F76" s="129"/>
+      <c r="G76" s="130"/>
+      <c r="H76" s="130"/>
+      <c r="I76" s="130"/>
+      <c r="J76" s="128"/>
+      <c r="K76" s="128"/>
     </row>
     <row r="77" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A77" s="27"/>
@@ -5399,19 +5352,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="F71:G71"/>
@@ -5422,6 +5362,19 @@
     <mergeCell ref="E59:I59"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="C51:D51"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0" top="0.19685039370078741" bottom="0" header="0.51181102362204722" footer="0.51181102362204722"/>
